--- a/pages/Templates/Stakeholder_Input_Vorlage_V1.xlsx
+++ b/pages/Templates/Stakeholder_Input_Vorlage_V1.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/044f60d434003980/Desktop/Masterarbeit_V1/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/044f60d434003980/Desktop/Masterarbeit_V1/pages/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{C0793751-BE1F-4ED3-AD1C-320D41DA7DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD072740-0D59-43A6-85EE-41205F03E352}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{C0793751-BE1F-4ED3-AD1C-320D41DA7DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5112E6D6-D069-4275-8D81-8E84145E8A24}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einführung" sheetId="1" r:id="rId1"/>
-    <sheet name="Top_Down" sheetId="2" r:id="rId2"/>
+    <sheet name="Top-Down" sheetId="2" r:id="rId2"/>
     <sheet name="Intern" sheetId="3" r:id="rId3"/>
     <sheet name="Extern" sheetId="5" r:id="rId4"/>
   </sheets>
@@ -1124,7 +1124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -2501,7 +2501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A8DE16-CC63-42DD-99B4-B45C5F1FF202}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>

--- a/pages/Templates/Stakeholder_Input_Vorlage_V1.xlsx
+++ b/pages/Templates/Stakeholder_Input_Vorlage_V1.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/044f60d434003980/Desktop/Masterarbeit_V1/pages/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{C0793751-BE1F-4ED3-AD1C-320D41DA7DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5112E6D6-D069-4275-8D81-8E84145E8A24}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A17A756-208C-4C2C-BD3D-DCCA541825DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einführung" sheetId="1" r:id="rId1"/>
     <sheet name="Top-Down" sheetId="2" r:id="rId2"/>
     <sheet name="Intern" sheetId="3" r:id="rId3"/>
-    <sheet name="Extern" sheetId="5" r:id="rId4"/>
+    <sheet name="Extern" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="124">
   <si>
     <t>Anleitung zur Verwendung der Excel-Tabelle zur Wesentlichkeitsanalyse</t>
   </si>
@@ -34,25 +34,10 @@
     <t>Vermeiden Sie Änderungen an den Strukturen und vordefinierten Formeln der Tabelle, um die korrekte Funktion und Auswertung zu gewährleisten.</t>
   </si>
   <si>
-    <t>2. Bewertung der Umweltaspekte:</t>
-  </si>
-  <si>
-    <t>Die einzelnen Umweltaspekte sind an den themenspezifischen Umweltpunkten der European Sustainability Reporting Standards (ESRS) orientiert.</t>
-  </si>
-  <si>
-    <t>Beurteilen Sie diese nach ihrer Wesentlichkeit für Ihr Unternehmen.</t>
-  </si>
-  <si>
-    <t>3. Unternehmensangaben eintragen:</t>
-  </si>
-  <si>
-    <t>Tragen Sie den Namen Ihres Unternehmens in die Zelle B8 ein.</t>
-  </si>
-  <si>
     <t>4. Dateiübermittlung:</t>
   </si>
   <si>
-    <t>Senden Sie die vollständig ausgefüllte Excel-Tabelle an die vorgegebene Adresse oder den Kontakt zurück, um die Datenerhebung abzuschließen.</t>
+    <t>Stakeholder- oder Unternehmensname:</t>
   </si>
   <si>
     <t>ESRS</t>
@@ -382,14 +367,144 @@
     <t>Vorkomnisse</t>
   </si>
   <si>
-    <t>Stakeholder- oder Unternehmensname:</t>
+    <t>Senden Sie die vollständig ausgefüllte Excel-Tabelle an den Kontakt zurück, um die Datenerhebung abzuschließen.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Die Inhalte der Lasche "Top-Down sind an den themenspezifischen Umweltpunkten der European Sustainability Reporting Standards (ESRS) orientiert.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Die Inhalte der Lasche "Intern" sind vom Unternhemen, welches die Wesentlichkeitsanalyse durchführt, aufgenommen worden.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Unternehmensangaben eintragen:</t>
+  </si>
+  <si>
+    <t>3. Bewertung der Umweltaspekte:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Bewerten Sie alle Umweltpunkte in den Laschen "Top-Down" und "Intern", sowie gegebenenfalls in der Lasche "Extern", falls von Ihnen hinzugefügt. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">     Nutzen Sie dafür die Listenauswahl in der Spalte "Bewertung" in jeder dieser Laschen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Die Inhalte in der Lasche "Extern" können von Ihnen bestimmt werden.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">     Tragen Sie hier wesentliche Inhalte ein, die in den zwei vorherigen Laschen  nicht abgedeckt sind.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tragen Sie den Namen Ihres Unternehmens in die Zelle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ein.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +544,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -511,21 +632,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -534,11 +640,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -546,7 +667,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -568,16 +688,159 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="medium">
@@ -685,21 +948,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:E94" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:E94" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:E94" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ESRS" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Thema" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Unterthema" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Unter-Unterthema" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Bewertung" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ESRS" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Thema" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Unterthema" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Unter-Unterthema" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Bewertung" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:D363" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:D363" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="A1:D363" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Thema"/>
@@ -712,13 +975,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E757ADC-EBE3-470D-9B18-C16E2A5B0321}" name="Tabelle44" displayName="Tabelle44" ref="A1:D363" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:D363" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle44" displayName="Tabelle44" ref="A1:D363" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19">
+  <autoFilter ref="A1:D363" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{9901726A-75F7-41DF-A050-015B601BE4A2}" name="Thema"/>
-    <tableColumn id="3" xr3:uid="{6928993E-E959-4FAE-863A-CCB17BBA4FBA}" name="Unterthema"/>
-    <tableColumn id="4" xr3:uid="{0C20B5BB-B6DB-4CFD-BBD4-C8CF03E00E50}" name="Unter-Unterthema"/>
-    <tableColumn id="5" xr3:uid="{9C37E137-9833-41B4-9F21-12D197CD53E5}" name="Bewertung"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Thema"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Unterthema"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Unter-Unterthema"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Bewertung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1041,23 +1304,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="119.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="124.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -1072,48 +1335,81 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B10" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="7"/>
+      <c r="B12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="21"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A14:A17" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$A$14:$A$17</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A15:A18" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$A$15:$A$18</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1124,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1138,1216 +1434,1214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="9" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="H2" s="2" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="H3" s="3" t="s">
+      <c r="C5" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="H4" s="4" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="D17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="D23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="11" t="s">
+      <c r="D28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="B29" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="11" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10" t="s">
+      <c r="D32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="10"/>
+      <c r="B46" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="10"/>
+      <c r="B48" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="8"/>
+      <c r="B58" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="D58" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="8"/>
+      <c r="B59" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="11" t="s">
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="11" t="s">
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="11" t="s">
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="D63" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="11" t="s">
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="11" t="s">
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="8"/>
+      <c r="B65" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="11" t="s">
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="8"/>
+      <c r="B67" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="12" t="s">
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68" s="10"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="10"/>
+      <c r="B69" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="10"/>
+      <c r="B70" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="10"/>
+      <c r="B71" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="10"/>
+      <c r="B72" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="10"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="10"/>
+      <c r="B73" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73" s="10"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="10"/>
+      <c r="B74" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="10"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="10"/>
+      <c r="B75" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" s="10"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="10"/>
+      <c r="B76" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="10"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="10"/>
+      <c r="B77" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="10"/>
+      <c r="B78" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" s="10"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="11"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="9" t="s">
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="8"/>
+      <c r="B80" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="8"/>
+      <c r="B81" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" s="8"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="8"/>
+      <c r="B82" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="9"/>
-      <c r="B55" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E55" s="9"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="9"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="9"/>
-      <c r="B57" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E57" s="9"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E58" s="9"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="9"/>
-      <c r="B59" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E59" s="9"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E60" s="9"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="9"/>
-      <c r="B61" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E61" s="9"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="9"/>
-      <c r="B62" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E62" s="9"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="9"/>
-      <c r="B63" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E63" s="9"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E64" s="9"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="9"/>
-      <c r="B65" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E65" s="9"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="9"/>
-      <c r="B66" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66" s="9"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="9"/>
-      <c r="B67" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E67" s="9"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E68" s="11"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E69" s="11"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E70" s="11"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" s="11"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="11"/>
-      <c r="B72" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72" s="11"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="11"/>
-      <c r="B73" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E73" s="11"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E74" s="11"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E75" s="11"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="11"/>
-      <c r="B76" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" s="11" t="s">
+      <c r="E82" s="8"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="8"/>
+      <c r="B83" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D76" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E76" s="11"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="11"/>
-      <c r="B77" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" s="12" t="s">
+      <c r="C83" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" s="8"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="8"/>
+      <c r="B84" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D77" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E77" s="11"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="11"/>
-      <c r="B78" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" s="12" t="s">
+      <c r="C84" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E84" s="8"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="8"/>
+      <c r="B85" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D78" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E78" s="11"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C79" s="9" t="s">
+      <c r="C85" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E79" s="9"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="9"/>
-      <c r="B80" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C80" s="10" t="s">
+      <c r="D85" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E85" s="8"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="8"/>
+      <c r="B86" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D80" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E80" s="9"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="9"/>
-      <c r="B81" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C81" s="10" t="s">
+      <c r="D86" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E86" s="8"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="8"/>
+      <c r="B87" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E81" s="9"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="9"/>
-      <c r="B82" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E82" s="9"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="9"/>
-      <c r="B83" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D83" s="14" t="s">
+      <c r="D87" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E83" s="9"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="9"/>
-      <c r="B84" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D84" s="9" t="s">
+      <c r="E87" s="8"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E84" s="9"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="9"/>
-      <c r="B85" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C85" s="9" t="s">
+      <c r="B88" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="C88" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E85" s="9"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="9"/>
-      <c r="B86" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C86" s="10" t="s">
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="10"/>
+      <c r="B89" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="C89" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E86" s="9"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="9"/>
-      <c r="B87" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C87" s="10" t="s">
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="10"/>
+      <c r="B90" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="C90" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E87" s="9"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="11" t="s">
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="10"/>
+      <c r="B91" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C91" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="10"/>
+      <c r="B92" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="10"/>
+      <c r="B93" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="11"/>
-      <c r="B89" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C89" s="11" t="s">
+      <c r="D93" s="11"/>
+      <c r="E93" s="10"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="10"/>
+      <c r="B94" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="11"/>
-      <c r="B90" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="11"/>
-      <c r="B91" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="11"/>
-      <c r="B92" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D93" s="12"/>
-      <c r="E93" s="11"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="11"/>
-      <c r="B94" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E94">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2359,7 +2653,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2369,7 +2663,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2381,7 +2675,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2393,7 +2687,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2417,6 +2711,73 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{EA1EF427-0AC9-40C3-B95C-F85438444DE5}">
+            <xm:f>NOT(ISERROR(SEARCH($H$1,E2)))</xm:f>
+            <xm:f>$H$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{FC7CEE5E-D680-49AC-AE41-1E1E4309692A}">
+            <xm:f>NOT(ISERROR(SEARCH($H$4,E1)))</xm:f>
+            <xm:f>$H$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{0B4F48A4-A206-4B91-8437-C0DEFD3DBBA6}">
+            <xm:f>NOT(ISERROR(SEARCH($H$3,E1)))</xm:f>
+            <xm:f>$H$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{4BA5F134-2750-4098-A479-B185DD85E42A}">
+            <xm:f>NOT(ISERROR(SEARCH($H$2,E1)))</xm:f>
+            <xm:f>$H$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{65E4FA9F-C613-4887-AE78-8CFF288AE679}">
+            <xm:f>NOT(ISERROR(SEARCH($H$1,E1)))</xm:f>
+            <xm:f>$H$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2424,8 +2785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2438,40 +2799,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>14</v>
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G4" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C201:C754 D2:D200">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2494,15 +2855,68 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{4C46494E-73CD-4DBE-A843-68563CE0920B}">
+            <xm:f>NOT(ISERROR(SEARCH($G$1,D1)))</xm:f>
+            <xm:f>$G$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{FDA5C83E-4D7E-4E36-BDA4-6E57D3E9FA4A}">
+            <xm:f>NOT(ISERROR(SEARCH($G$2,D1)))</xm:f>
+            <xm:f>$G$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{62847A50-0980-4CC7-B271-799A9E5911A3}">
+            <xm:f>NOT(ISERROR(SEARCH($G$3,D1)))</xm:f>
+            <xm:f>$G$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{D67577B9-FFB5-4FB0-AEFB-6F2811567EE1}">
+            <xm:f>NOT(ISERROR(SEARCH($G$4,D1)))</xm:f>
+            <xm:f>$G$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A8DE16-CC63-42DD-99B4-B45C5F1FF202}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2515,40 +2929,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>14</v>
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G4" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C201:C754 D2:D200">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2560,10 +2974,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C201:C400 D2:D200" xr:uid="{AE73FFD9-80A4-44FC-94A2-E941D32948F2}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C201:C400 D2:D200" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$G$1:$G$4</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G1:G4" xr:uid="{29CC09CB-2B02-4562-9DED-5F479EBBF337}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G1:G4" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>$A$14:$A$17</formula1>
     </dataValidation>
   </dataValidations>
@@ -2571,5 +2985,58 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{07AA8F67-ACA5-46C1-9BB4-02313CC9FEA4}">
+            <xm:f>NOT(ISERROR(SEARCH($G$1,D1)))</xm:f>
+            <xm:f>$G$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{E6BC0DC9-3E2A-4671-BC46-323AC67CAFA2}">
+            <xm:f>NOT(ISERROR(SEARCH($G$2,D1)))</xm:f>
+            <xm:f>$G$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{FA462F07-DBD6-4362-B29D-7FAC1AF2756F}">
+            <xm:f>NOT(ISERROR(SEARCH($G$3,D1)))</xm:f>
+            <xm:f>$G$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{02F37BF9-E9B4-4355-AD42-426A4FA24E25}">
+            <xm:f>NOT(ISERROR(SEARCH($G$4,D1)))</xm:f>
+            <xm:f>$G$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/pages/Templates/Stakeholder_Input_Vorlage_V1.xlsx
+++ b/pages/Templates/Stakeholder_Input_Vorlage_V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/044f60d434003980/Desktop/Masterarbeit_V1/pages/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A17A756-208C-4C2C-BD3D-DCCA541825DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{8A17A756-208C-4C2C-BD3D-DCCA541825DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35F3D188-564F-4C99-852E-0B0B20D23331}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einführung" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="125">
   <si>
     <t>Anleitung zur Verwendung der Excel-Tabelle zur Wesentlichkeitsanalyse</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Unter-Unterthema</t>
-  </si>
-  <si>
-    <t>Bewertung</t>
   </si>
   <si>
     <t>Wesentlich</t>
@@ -499,12 +496,18 @@
       <t xml:space="preserve"> ein.</t>
     </r>
   </si>
+  <si>
+    <t>Auswirkungsbezogene Bewertung</t>
+  </si>
+  <si>
+    <t>Finanzbezogene Bewertung</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,7 +626,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -655,11 +658,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -689,25 +701,44 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -745,6 +776,15 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
@@ -767,6 +807,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -795,7 +842,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -809,7 +863,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -830,14 +891,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -948,40 +1009,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:E94" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:E94" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ESRS" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Thema" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Unterthema" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Unter-Unterthema" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Bewertung" dataDxfId="25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:F94" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A1:F94" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ESRS" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Thema" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Unterthema" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Unter-Unterthema" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Auswirkungsbezogene Bewertung" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{1189055C-8503-4048-BA3A-98AA662ABFC3}" name="Finanzbezogene Bewertung" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:D363" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
-  <autoFilter ref="A1:D363" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:E363" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29">
+  <autoFilter ref="A1:E363" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Thema"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Unterthema"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Unter-Unterthema"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Bewertung"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Auswirkungsbezogene Bewertung"/>
+    <tableColumn id="1" xr3:uid="{13C4478C-16E0-458B-B046-FFB29239EEF8}" name="Finanzbezogene Bewertung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle44" displayName="Tabelle44" ref="A1:D363" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19">
-  <autoFilter ref="A1:D363" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle44" displayName="Tabelle44" ref="A1:E363" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
+  <autoFilter ref="A1:E363" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Thema"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Unterthema"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Unter-Unterthema"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Bewertung"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Auswirkungsbezogene Bewertung"/>
+    <tableColumn id="1" xr3:uid="{7C763A09-7151-4C58-BA5D-41CAD0366928}" name="Finanzbezogene Bewertung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1306,26 +1370,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="33.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="124.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1333,74 +1397,71 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>118</v>
-      </c>
       <c r="B4" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="6"/>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6"/>
+      <c r="B7" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1"/>
+    <row r="12" spans="1:5" ht="15" thickBot="1">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="22"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="21"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="19"/>
+      <c r="B12" s="17"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1420,20 +1481,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="35.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="107.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -1447,1201 +1509,1297 @@
         <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>37</v>
-      </c>
       <c r="D17" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="10"/>
       <c r="B19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="D19" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="D20" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="D21" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="D22" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="10"/>
       <c r="B24" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="10"/>
       <c r="B25" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="10"/>
       <c r="B28" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="10"/>
       <c r="B33" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="D33" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="10"/>
       <c r="B34" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="D34" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="10"/>
       <c r="B35" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="D35" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="10"/>
       <c r="B36" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="D36" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="10"/>
       <c r="B37" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="D37" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="10"/>
       <c r="B38" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="D38" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="10"/>
       <c r="B39" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="D39" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="10"/>
       <c r="B40" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="10"/>
       <c r="B41" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="10"/>
       <c r="B42" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="10"/>
       <c r="B43" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E43" s="10"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="10"/>
       <c r="B44" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="10"/>
       <c r="B45" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="10"/>
       <c r="B46" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="10"/>
       <c r="B47" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="10"/>
       <c r="B48" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E48" s="10"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="10"/>
       <c r="B49" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="E50" s="8"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="8"/>
       <c r="B51" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E51" s="8"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="8"/>
       <c r="B52" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E52" s="8"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="8"/>
       <c r="B53" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E53" s="8"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="8"/>
       <c r="B54" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E54" s="8"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="8"/>
       <c r="B55" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E55" s="8"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="8"/>
       <c r="B56" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E56" s="8"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="8"/>
       <c r="B57" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E57" s="8"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="8"/>
       <c r="B58" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="E58" s="8"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="8"/>
       <c r="B59" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E59" s="8"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="8"/>
       <c r="B60" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E60" s="8"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="8"/>
       <c r="B61" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E61" s="8"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="8"/>
       <c r="B62" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E62" s="8"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="8"/>
       <c r="B63" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="E63" s="8"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="8"/>
       <c r="B64" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E64" s="8"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="8"/>
       <c r="B65" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E65" s="8"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="8"/>
       <c r="B66" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E66" s="8"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="8"/>
       <c r="B67" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67" s="8"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="10" t="s">
+      <c r="B68" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="D68" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E68" s="10"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="10"/>
       <c r="B69" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="D69" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>83</v>
-      </c>
       <c r="E69" s="10"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="10"/>
       <c r="B70" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="D70" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E70" s="10"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="10"/>
       <c r="B71" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="D71" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E71" s="10"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="10"/>
       <c r="B72" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="D72" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E72" s="10"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="10"/>
       <c r="B73" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D73" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="E73" s="10"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="10"/>
       <c r="B74" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E74" s="10"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="10"/>
       <c r="B75" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E75" s="10"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="10"/>
       <c r="B76" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D76" s="10" t="s">
-        <v>91</v>
-      </c>
       <c r="E76" s="10"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="10"/>
       <c r="B77" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="10"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="10"/>
       <c r="B78" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D78" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E78" s="10"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="8" t="s">
+      <c r="B79" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="D79" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E79" s="8"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="8"/>
       <c r="B80" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="D80" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E80" s="8"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="8"/>
       <c r="B81" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="D81" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D81" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="E81" s="8"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="8"/>
       <c r="B82" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E82" s="8"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="8"/>
       <c r="B83" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C83" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D83" s="13" t="s">
-        <v>99</v>
-      </c>
       <c r="E83" s="8"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="8"/>
       <c r="B84" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E84" s="8"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="8"/>
       <c r="B85" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C85" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D85" s="13" t="s">
-        <v>102</v>
-      </c>
       <c r="E85" s="8"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="8"/>
       <c r="B86" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E86" s="8"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="8"/>
       <c r="B87" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D87" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E87" s="8"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="10" t="s">
+      <c r="B88" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F88" s="10"/>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="10"/>
       <c r="B89" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="10"/>
       <c r="B90" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="10"/>
       <c r="B91" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F91" s="10"/>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="10"/>
       <c r="B92" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="10"/>
       <c r="B93" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="10"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="10"/>
       <c r="B94" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E94">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2652,8 +2810,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="E20:F20">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2663,7 +2821,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2674,8 +2832,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2686,8 +2844,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="E31:F31">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F94">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2699,7 +2869,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E94" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:F94" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$H$1:$H$4</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H1:H4" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -2715,21 +2885,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{EA1EF427-0AC9-40C3-B95C-F85438444DE5}">
-            <xm:f>NOT(ISERROR(SEARCH($H$1,E2)))</xm:f>
-            <xm:f>$H$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{FC7CEE5E-D680-49AC-AE41-1E1E4309692A}">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{FC7CEE5E-D680-49AC-AE41-1E1E4309692A}">
             <xm:f>NOT(ISERROR(SEARCH($H$4,E1)))</xm:f>
             <xm:f>$H$4</xm:f>
             <x14:dxf>
@@ -2740,7 +2896,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{0B4F48A4-A206-4B91-8437-C0DEFD3DBBA6}">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{0B4F48A4-A206-4B91-8437-C0DEFD3DBBA6}">
             <xm:f>NOT(ISERROR(SEARCH($H$3,E1)))</xm:f>
             <xm:f>$H$3</xm:f>
             <x14:dxf>
@@ -2751,7 +2907,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{4BA5F134-2750-4098-A479-B185DD85E42A}">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{4BA5F134-2750-4098-A479-B185DD85E42A}">
             <xm:f>NOT(ISERROR(SEARCH($H$2,E1)))</xm:f>
             <xm:f>$H$2</xm:f>
             <x14:dxf>
@@ -2762,7 +2918,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{65E4FA9F-C613-4887-AE78-8CFF288AE679}">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{65E4FA9F-C613-4887-AE78-8CFF288AE679}">
             <xm:f>NOT(ISERROR(SEARCH($H$1,E1)))</xm:f>
             <xm:f>$H$1</xm:f>
             <x14:dxf>
@@ -2775,6 +2931,67 @@
           </x14:cfRule>
           <xm:sqref>E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{EA1EF427-0AC9-40C3-B95C-F85438444DE5}">
+            <xm:f>NOT(ISERROR(SEARCH($H$1,E2)))</xm:f>
+            <xm:f>$H$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E2:F2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{8FE3F42A-D5AD-4D2B-B452-1CC6739E6DAA}">
+            <xm:f>NOT(ISERROR(SEARCH($H$4,F2)))</xm:f>
+            <xm:f>$H$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{DCC39836-F434-45F4-9554-EE4FF8F57817}">
+            <xm:f>NOT(ISERROR(SEARCH($H$3,F2)))</xm:f>
+            <xm:f>$H$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{AF66E5E4-4E22-4690-B1B2-395EFA1361E7}">
+            <xm:f>NOT(ISERROR(SEARCH($H$2,F2)))</xm:f>
+            <xm:f>$H$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{126B97DA-429A-49B1-A2DE-80D6156C9757}">
+            <xm:f>NOT(ISERROR(SEARCH($H$1,F2)))</xm:f>
+            <xm:f>$H$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F2:F94</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -2786,19 +3003,20 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="35.6328125" customWidth="1"/>
     <col min="2" max="2" width="56.6328125" customWidth="1"/>
     <col min="3" max="3" width="66.6328125" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" customWidth="1"/>
+    <col min="4" max="4" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2809,30 +3027,45 @@
         <v>8</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7">
       <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="G4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C201:C754 D2:D200">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E200">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2847,7 +3080,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G1:G4" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$A$14:$A$17</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C201:C400 D2:D200" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C201:C400 D2:E200" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>$G$1:$G$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -2859,7 +3092,40 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{4C46494E-73CD-4DBE-A843-68563CE0920B}">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{D67577B9-FFB5-4FB0-AEFB-6F2811567EE1}">
+            <xm:f>NOT(ISERROR(SEARCH($G$4,D1)))</xm:f>
+            <xm:f>$G$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{62847A50-0980-4CC7-B271-799A9E5911A3}">
+            <xm:f>NOT(ISERROR(SEARCH($G$3,D1)))</xm:f>
+            <xm:f>$G$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{FDA5C83E-4D7E-4E36-BDA4-6E57D3E9FA4A}">
+            <xm:f>NOT(ISERROR(SEARCH($G$2,D1)))</xm:f>
+            <xm:f>$G$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{4C46494E-73CD-4DBE-A843-68563CE0920B}">
             <xm:f>NOT(ISERROR(SEARCH($G$1,D1)))</xm:f>
             <xm:f>$G$1</xm:f>
             <x14:dxf>
@@ -2870,8 +3136,33 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{FDA5C83E-4D7E-4E36-BDA4-6E57D3E9FA4A}">
-            <xm:f>NOT(ISERROR(SEARCH($G$2,D1)))</xm:f>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{C0DA1FF3-F9F1-4DEA-97E5-E73C4866200E}">
+            <xm:f>NOT(ISERROR(SEARCH($G$4,E2)))</xm:f>
+            <xm:f>$G$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{E8DF1CF8-19A1-4EFA-90C7-65334967B3C0}">
+            <xm:f>NOT(ISERROR(SEARCH($G$3,E2)))</xm:f>
+            <xm:f>$G$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{B81FC4A7-D31B-435B-9504-997E02BACBD0}">
+            <xm:f>NOT(ISERROR(SEARCH($G$2,E2)))</xm:f>
             <xm:f>$G$2</xm:f>
             <x14:dxf>
               <fill>
@@ -2881,29 +3172,18 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{62847A50-0980-4CC7-B271-799A9E5911A3}">
-            <xm:f>NOT(ISERROR(SEARCH($G$3,D1)))</xm:f>
-            <xm:f>$G$3</xm:f>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{27FE35C4-DCB4-4F4F-BE30-851BF2243D6F}">
+            <xm:f>NOT(ISERROR(SEARCH($G$1,E2)))</xm:f>
+            <xm:f>$G$1</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
-                  <bgColor rgb="FFFFC000"/>
+                  <bgColor rgb="FF92D050"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{D67577B9-FFB5-4FB0-AEFB-6F2811567EE1}">
-            <xm:f>NOT(ISERROR(SEARCH($G$4,D1)))</xm:f>
-            <xm:f>$G$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>E2:E363</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2915,20 +3195,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="35.6328125" customWidth="1"/>
     <col min="2" max="2" width="56.6328125" customWidth="1"/>
     <col min="3" max="3" width="66.7265625" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" customWidth="1"/>
+    <col min="4" max="4" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2939,30 +3220,45 @@
         <v>8</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7">
       <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="G4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C201:C754 D2:D200">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E200">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2974,7 +3270,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C201:C400 D2:D200" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C201:C400 D2:E200" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$G$1:$G$4</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G1:G4" xr:uid="{00000000-0002-0000-0300-000001000000}">
@@ -2989,7 +3285,40 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{07AA8F67-ACA5-46C1-9BB4-02313CC9FEA4}">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{02F37BF9-E9B4-4355-AD42-426A4FA24E25}">
+            <xm:f>NOT(ISERROR(SEARCH($G$4,D1)))</xm:f>
+            <xm:f>$G$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{FA462F07-DBD6-4362-B29D-7FAC1AF2756F}">
+            <xm:f>NOT(ISERROR(SEARCH($G$3,D1)))</xm:f>
+            <xm:f>$G$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{E6BC0DC9-3E2A-4671-BC46-323AC67CAFA2}">
+            <xm:f>NOT(ISERROR(SEARCH($G$2,D1)))</xm:f>
+            <xm:f>$G$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{07AA8F67-ACA5-46C1-9BB4-02313CC9FEA4}">
             <xm:f>NOT(ISERROR(SEARCH($G$1,D1)))</xm:f>
             <xm:f>$G$1</xm:f>
             <x14:dxf>
@@ -3000,8 +3329,33 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{E6BC0DC9-3E2A-4671-BC46-323AC67CAFA2}">
-            <xm:f>NOT(ISERROR(SEARCH($G$2,D1)))</xm:f>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{EA164BB6-9C55-4B37-A79F-BF34DCD5DC1A}">
+            <xm:f>NOT(ISERROR(SEARCH($G$4,E2)))</xm:f>
+            <xm:f>$G$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{0BEBCC33-2BAE-45BC-AB9D-2DB91E9D7909}">
+            <xm:f>NOT(ISERROR(SEARCH($G$3,E2)))</xm:f>
+            <xm:f>$G$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{88B94756-6174-47F3-BAE7-3CACE2C5F167}">
+            <xm:f>NOT(ISERROR(SEARCH($G$2,E2)))</xm:f>
             <xm:f>$G$2</xm:f>
             <x14:dxf>
               <fill>
@@ -3011,29 +3365,18 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{FA462F07-DBD6-4362-B29D-7FAC1AF2756F}">
-            <xm:f>NOT(ISERROR(SEARCH($G$3,D1)))</xm:f>
-            <xm:f>$G$3</xm:f>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{D933B1F5-D45F-467A-83E0-6D7CE7FD1A40}">
+            <xm:f>NOT(ISERROR(SEARCH($G$1,E2)))</xm:f>
+            <xm:f>$G$1</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
-                  <bgColor rgb="FFFFC000"/>
+                  <bgColor rgb="FF92D050"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{02F37BF9-E9B4-4355-AD42-426A4FA24E25}">
-            <xm:f>NOT(ISERROR(SEARCH($G$4,D1)))</xm:f>
-            <xm:f>$G$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>E2:E363</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/pages/Templates/Stakeholder_Input_Vorlage_V1.xlsx
+++ b/pages/Templates/Stakeholder_Input_Vorlage_V1.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="28" documentId="8_{8A17A756-208C-4C2C-BD3D-DCCA541825DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35F3D188-564F-4C99-852E-0B0B20D23331}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einführung" sheetId="1" r:id="rId1"/>
@@ -708,11 +708,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -773,15 +773,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -973,6 +964,15 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
@@ -1017,14 +1017,14 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Unterthema" dataDxfId="34"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Unter-Unterthema" dataDxfId="33"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Auswirkungsbezogene Bewertung" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{1189055C-8503-4048-BA3A-98AA662ABFC3}" name="Finanzbezogene Bewertung" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{1189055C-8503-4048-BA3A-98AA662ABFC3}" name="Finanzbezogene Bewertung" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:E363" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:E363" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
   <autoFilter ref="A1:E363" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Thema"/>
@@ -1038,7 +1038,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle44" displayName="Tabelle44" ref="A1:E363" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle44" displayName="Tabelle44" ref="A1:E363" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="A1:E363" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Thema"/>
@@ -1381,10 +1381,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -1481,7 +1481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -3003,7 +3003,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -3195,8 +3195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -3222,7 +3222,7 @@
       <c r="D1" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>124</v>
       </c>
       <c r="G1" s="1" t="s">

--- a/pages/Templates/Stakeholder_Input_Vorlage_V1.xlsx
+++ b/pages/Templates/Stakeholder_Input_Vorlage_V1.xlsx
@@ -1,39 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/044f60d434003980/Desktop/Masterarbeit_V1/pages/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{8A17A756-208C-4C2C-BD3D-DCCA541825DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35F3D188-564F-4C99-852E-0B0B20D23331}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{8A17A756-208C-4C2C-BD3D-DCCA541825DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C92A374E-C4EC-4237-89E0-3BF1822DF931}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einführung" sheetId="1" r:id="rId1"/>
-    <sheet name="Top-Down" sheetId="2" r:id="rId2"/>
-    <sheet name="Intern" sheetId="3" r:id="rId3"/>
-    <sheet name="Extern" sheetId="4" r:id="rId4"/>
+    <sheet name="Themenspezifische ESRS" sheetId="2" r:id="rId2"/>
+    <sheet name="Interne Nachhaltigkeitspunkte" sheetId="3" r:id="rId3"/>
+    <sheet name="Externe Nachhaltigkeitspunkte" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="127">
   <si>
     <t>Anleitung zur Verwendung der Excel-Tabelle zur Wesentlichkeitsanalyse</t>
   </si>
   <si>
-    <t>1. Inhaltsintegrität</t>
-  </si>
-  <si>
-    <t>Vermeiden Sie Änderungen an den Strukturen und vordefinierten Formeln der Tabelle, um die korrekte Funktion und Auswertung zu gewährleisten.</t>
-  </si>
-  <si>
     <t>4. Dateiübermittlung:</t>
   </si>
   <si>
@@ -367,108 +361,10 @@
     <t>Senden Sie die vollständig ausgefüllte Excel-Tabelle an den Kontakt zurück, um die Datenerhebung abzuschließen.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Die Inhalte der Lasche "Top-Down sind an den themenspezifischen Umweltpunkten der European Sustainability Reporting Standards (ESRS) orientiert.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Die Inhalte der Lasche "Intern" sind vom Unternhemen, welches die Wesentlichkeitsanalyse durchführt, aufgenommen worden.</t>
-    </r>
-  </si>
-  <si>
     <t>2. Unternehmensangaben eintragen:</t>
   </si>
   <si>
     <t>3. Bewertung der Umweltaspekte:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Bewerten Sie alle Umweltpunkte in den Laschen "Top-Down" und "Intern", sowie gegebenenfalls in der Lasche "Extern", falls von Ihnen hinzugefügt. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">     Nutzen Sie dafür die Listenauswahl in der Spalte "Bewertung" in jeder dieser Laschen</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Die Inhalte in der Lasche "Extern" können von Ihnen bestimmt werden.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">     Tragen Sie hier wesentliche Inhalte ein, die in den zwei vorherigen Laschen  nicht abgedeckt sind.</t>
   </si>
   <si>
     <r>
@@ -502,12 +398,90 @@
   <si>
     <t>Finanzbezogene Bewertung</t>
   </si>
+  <si>
+    <t xml:space="preserve">4. Bewerten Sie alle Umweltpunkte in den Registerkarten "Themenspezifische ESRS", "Interne Nachhaltigkeitspunkte", sowie in der Registerkarte "Externe Nachhaltigkeitspunkte", falls von Ihnen hinzugefügt. </t>
+  </si>
+  <si>
+    <t>Nutzen Sie dafür die Listenauswahl in Bewertungsspalten in jeder dieser Registerkarten</t>
+  </si>
+  <si>
+    <r>
+      <t>3. Die Inhalte in der Registerkarte "Externe Nachhaltigkeitspunkte" können von</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ihnen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bestimmt werden.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Die Inhalte der Registerkarte "Themenspezifische ESRS sind an den themenspezifischen Umweltpunkten der European Sustainability Reporting Standards (ESRS) orientiert. Bewerten Sie diese.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Die Inhalte der Registerkarte "Interne Nachhaltigkeitspunkte" sind vom </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unternhemen, welches die Wesentlichkeitsanalyse durchführt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, aufgenommen worden. Bewerten Sie diese</t>
+    </r>
+  </si>
+  <si>
+    <t>Tragen Sie hier ihre wesentlichen Inhalte ein, die durch die zwei vorherigen Registerkarten nicht abgedeckt sind. Asnchließend bewerten Sie auch diese.</t>
+  </si>
+  <si>
+    <t>1. Inhaltsintegrität &amp; Sicherheit</t>
+  </si>
+  <si>
+    <t>Vermeiden Sie Änderungen an den Strukturen und vordefinierten Formeln der Tabelle, um die korrekte Funktion und Auswertung zu gewährleisten. Die Excel ist so ausgelegt, dass nur relevante Zellen bearbeitet werden können.</t>
+  </si>
+  <si>
+    <t>Wie werden ich durch diese Excel in die Wesentlichkeitsanalyse integriert?</t>
+  </si>
+  <si>
+    <t>Sie haben diese Excel-Datei erhalten, weil Sie als relevanter Stakeholder im Rahmen der Wesentlichkeitsanalyse des Unternehmens identifiziert wurden.
+Das Unternehmen bittet Sie, die bereits aufgeführten Auswirkungen, Chancen und Risiken in der Datei zu bewerten und gegebenenfalls eigene relevante Nachhaltigkeitspunkte hinzuzufügen.  
+Ihre Bewertungen werden mit denen anderer Stakeholder zusammengeführt, um eine Gesamtbewertung für jeden Nachhaltigkeitspunkt zu ermitteln. Ihre hinzugefügten Punkte und Bewertungen spielen eine wichtige Rolle bei der Identifizierung der wesentlichen Themen für die Nachhaltigkeitsstrategie des Unternehmens und fließen in die endgültige Priorisierung der Themen ein.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,6 +527,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -609,12 +591,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -623,6 +599,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -671,53 +653,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="47">
     <dxf>
       <fill>
         <patternFill>
@@ -894,6 +878,60 @@
       </fill>
     </dxf>
     <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color rgb="FF000000"/>
@@ -965,36 +1003,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1009,43 +1017,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:F94" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:F94" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:F94" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ESRS" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Thema" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Unterthema" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Unter-Unterthema" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Auswirkungsbezogene Bewertung" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{1189055C-8503-4048-BA3A-98AA662ABFC3}" name="Finanzbezogene Bewertung" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ESRS" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Thema" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Unterthema" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Unter-Unterthema" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Auswirkungsbezogene Bewertung" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{1189055C-8503-4048-BA3A-98AA662ABFC3}" name="Finanzbezogene Bewertung" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:E363" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:E363" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" tableBorderDxfId="44">
   <autoFilter ref="A1:E363" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Thema"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Unterthema"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Unter-Unterthema"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Auswirkungsbezogene Bewertung"/>
-    <tableColumn id="1" xr3:uid="{13C4478C-16E0-458B-B046-FFB29239EEF8}" name="Finanzbezogene Bewertung"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Auswirkungsbezogene Bewertung" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{13C4478C-16E0-458B-B046-FFB29239EEF8}" name="Finanzbezogene Bewertung" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle44" displayName="Tabelle44" ref="A1:E363" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle44" displayName="Tabelle44" ref="A1:E363" totalsRowShown="0" headerRowDxfId="43" dataDxfId="25" headerRowBorderDxfId="42" tableBorderDxfId="41">
   <autoFilter ref="A1:E363" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Thema"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Unterthema"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Unter-Unterthema"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Auswirkungsbezogene Bewertung"/>
-    <tableColumn id="1" xr3:uid="{7C763A09-7151-4C58-BA5D-41CAD0366928}" name="Finanzbezogene Bewertung"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Thema" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Unterthema" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Unter-Unterthema" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Auswirkungsbezogene Bewertung" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{7C763A09-7151-4C58-BA5D-41CAD0366928}" name="Finanzbezogene Bewertung" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1368,111 +1376,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="124.08984375" customWidth="1"/>
+    <col min="2" max="2" width="182.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6"/>
-      <c r="B6" s="16" t="s">
-        <v>120</v>
+      <c r="B6" s="12" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6"/>
-      <c r="B7" s="16" t="s">
-        <v>121</v>
+      <c r="B7" s="12" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="15"/>
+      <c r="B8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="15"/>
+      <c r="B9" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1"/>
-    <row r="12" spans="1:5" ht="15" thickBot="1">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="17"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1"/>
+    <row r="15" spans="1:5" ht="15" thickBot="1">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="13"/>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="5"/>
     </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="27"/>
+    </row>
+    <row r="19" spans="1:2" ht="64" customHeight="1">
+      <c r="A19" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A15:A18" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$A$15:$A$18</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1481,1323 +1498,1327 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A17" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="107.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="15"/>
+    <col min="2" max="2" width="30.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.1796875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="115.1796875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" style="15"/>
+    <col min="8" max="8" width="18.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.90625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="8" t="s">
+      <c r="C2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
+      <c r="H2" s="18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="17"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
+      <c r="H3" s="20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="17"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="10" t="s">
+      <c r="C5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="D10" s="22"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="8" t="s">
+      <c r="C12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="8"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="17"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="8"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="17"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="8"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="17"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="8"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="17"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="D17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="D23" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="D25" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="D28" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="B29" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="8" t="s">
+      <c r="C29" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="8"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="17"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="D32" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11" t="s">
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="22"/>
+      <c r="B36" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="22"/>
+      <c r="B42" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="22"/>
+      <c r="B43" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="22"/>
+      <c r="B45" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="22"/>
+      <c r="B47" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="22"/>
+      <c r="B48" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="22"/>
+      <c r="B49" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="9" t="s">
+      <c r="A51" s="17"/>
+      <c r="B51" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>59</v>
+      <c r="A52" s="17"/>
+      <c r="B52" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>60</v>
+      <c r="A53" s="17"/>
+      <c r="B53" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>61</v>
+      <c r="A54" s="17"/>
+      <c r="B54" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="8"/>
-      <c r="B55" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>62</v>
+      <c r="A55" s="17"/>
+      <c r="B55" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>63</v>
+      <c r="A56" s="17"/>
+      <c r="B56" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="8"/>
-      <c r="B57" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>64</v>
+      <c r="A57" s="17"/>
+      <c r="B57" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>66</v>
+      <c r="A58" s="17"/>
+      <c r="B58" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="8"/>
-      <c r="B59" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="9" t="s">
+      <c r="A59" s="17"/>
+      <c r="B59" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>68</v>
+      <c r="A60" s="17"/>
+      <c r="B60" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="8"/>
-      <c r="B61" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>69</v>
+      <c r="A61" s="17"/>
+      <c r="B61" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="8"/>
-      <c r="B62" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>70</v>
+      <c r="A62" s="17"/>
+      <c r="B62" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="8"/>
-      <c r="B63" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>72</v>
+      <c r="A63" s="17"/>
+      <c r="B63" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="8"/>
-      <c r="B64" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="9" t="s">
+      <c r="A64" s="17"/>
+      <c r="B64" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="8"/>
-      <c r="B65" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>74</v>
+      <c r="A65" s="17"/>
+      <c r="B65" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="8"/>
-      <c r="B66" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>75</v>
+      <c r="A66" s="17"/>
+      <c r="B66" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="8"/>
-      <c r="B67" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="8" t="s">
+      <c r="A67" s="17"/>
+      <c r="B67" s="19" t="s">
         <v>76</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="D68" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="22"/>
+      <c r="B69" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="22"/>
+      <c r="B70" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="22"/>
+      <c r="B71" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="10"/>
-      <c r="B69" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D69" s="10" t="s">
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="22"/>
+      <c r="B72" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="10"/>
-      <c r="B70" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D70" s="10" t="s">
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="22"/>
+      <c r="B73" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="22"/>
+      <c r="B74" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="22"/>
+      <c r="B75" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="22"/>
+      <c r="B76" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="22"/>
+      <c r="B77" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="22"/>
+      <c r="B78" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="10"/>
-      <c r="B71" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="10"/>
-      <c r="B72" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="10"/>
-      <c r="B73" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="10"/>
-      <c r="B74" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="10"/>
-      <c r="B75" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="10"/>
-      <c r="B76" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="10"/>
-      <c r="B77" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="10"/>
-      <c r="B78" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="8"/>
-      <c r="B80" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>86</v>
+      <c r="A80" s="17"/>
+      <c r="B80" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="8"/>
-      <c r="B81" s="9" t="s">
+      <c r="A81" s="17"/>
+      <c r="B81" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="8"/>
-      <c r="B82" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>64</v>
+      <c r="A82" s="17"/>
+      <c r="B82" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="8"/>
-      <c r="B83" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>98</v>
+      <c r="A83" s="17"/>
+      <c r="B83" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="8"/>
-      <c r="B84" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="9" t="s">
+      <c r="A84" s="17"/>
+      <c r="B84" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" s="17" t="s">
         <v>97</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="8"/>
-      <c r="B85" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>101</v>
+      <c r="A85" s="17"/>
+      <c r="B85" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="8"/>
-      <c r="B86" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C86" s="9" t="s">
+      <c r="A86" s="17"/>
+      <c r="B86" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="17" t="s">
         <v>100</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="8"/>
-      <c r="B87" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>103</v>
+      <c r="A87" s="17"/>
+      <c r="B87" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C88" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="D88" s="22"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="22"/>
+      <c r="B89" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="D89" s="22"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="22"/>
+      <c r="B90" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="10"/>
-      <c r="B89" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C89" s="10" t="s">
+      <c r="D90" s="22"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="22"/>
+      <c r="B91" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="10"/>
-      <c r="B90" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C90" s="10" t="s">
+      <c r="D91" s="22"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="22"/>
+      <c r="B92" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="10"/>
-      <c r="B91" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C91" s="10" t="s">
+      <c r="D92" s="22"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="22"/>
+      <c r="B93" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="10"/>
-      <c r="B92" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C92" s="10" t="s">
+      <c r="D93" s="23"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="22"/>
+      <c r="B94" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="10"/>
-      <c r="B93" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D93" s="11"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="10"/>
-      <c r="B94" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="S3tl2zotdtRBBkqE+kP6UruxwhBjNJBSBAT1pnV1g6kF2nUqG4qwmyPDkgcdcte7R2Yq1MoTU/o1icN8wh2WYg==" saltValue="O/mbXMfwxHaeJ4vqZl56qQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="E2:E94">
     <cfRule type="colorScale" priority="25">
       <colorScale>
@@ -2866,6 +2887,11 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:F94">
+    <cfRule type="beginsWith" dxfId="19" priority="1" operator="beginsWith" text="Nicht">
+      <formula>LEFT(E2,LEN("Nicht"))="Nicht"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -2946,19 +2972,8 @@
           <xm:sqref>E2:F2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{8FE3F42A-D5AD-4D2B-B452-1CC6739E6DAA}">
-            <xm:f>NOT(ISERROR(SEARCH($H$4,F2)))</xm:f>
-            <xm:f>$H$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
           <x14:cfRule type="containsText" priority="2" operator="containsText" id="{DCC39836-F434-45F4-9554-EE4FF8F57817}">
-            <xm:f>NOT(ISERROR(SEARCH($H$3,F2)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($H$3,E2)))</xm:f>
             <xm:f>$H$3</xm:f>
             <x14:dxf>
               <fill>
@@ -2969,7 +2984,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="3" operator="containsText" id="{AF66E5E4-4E22-4690-B1B2-395EFA1361E7}">
-            <xm:f>NOT(ISERROR(SEARCH($H$2,F2)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($H$2,E2)))</xm:f>
             <xm:f>$H$2</xm:f>
             <x14:dxf>
               <fill>
@@ -2980,7 +2995,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="4" operator="containsText" id="{126B97DA-429A-49B1-A2DE-80D6156C9757}">
-            <xm:f>NOT(ISERROR(SEARCH($H$1,F2)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($H$1,E2)))</xm:f>
             <xm:f>$H$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2990,7 +3005,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F2:F94</xm:sqref>
+          <xm:sqref>E2:F94</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3000,10 +3015,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G363"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D2" sqref="D2:E363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -3017,41 +3032,1484 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:7">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="G3" s="3" t="s">
+    <row r="4" spans="1:7">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="G4" s="4" t="s">
-        <v>17</v>
-      </c>
+    <row r="5" spans="1:7">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="4:5">
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="4:5">
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="4:5">
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="4:5">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="4:5">
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="4:5">
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="4:5">
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="4:5">
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="4:5">
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="4:5">
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="4:5">
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="4:5">
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="4:5">
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="4:5">
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="4:5">
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="4:5">
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="4:5">
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="4:5">
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="4:5">
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="4:5">
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="4:5">
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="4:5">
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="4:5">
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="4:5">
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="4:5">
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="4:5">
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="4:5">
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="4:5">
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="4:5">
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="4:5">
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="4:5">
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="4:5">
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="4:5">
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="4:5">
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="4:5">
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="4:5">
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="4:5">
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="4:5">
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="4:5">
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="4:5">
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="4:5">
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" spans="4:5">
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="4:5">
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="4:5">
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="4:5">
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="4:5">
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="4:5">
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="4:5">
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" spans="4:5">
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" spans="4:5">
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" spans="4:5">
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" spans="4:5">
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+    </row>
+    <row r="105" spans="4:5">
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" spans="4:5">
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" spans="4:5">
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+    </row>
+    <row r="108" spans="4:5">
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+    </row>
+    <row r="109" spans="4:5">
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+    </row>
+    <row r="110" spans="4:5">
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+    </row>
+    <row r="111" spans="4:5">
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+    </row>
+    <row r="112" spans="4:5">
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+    </row>
+    <row r="113" spans="4:5">
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+    </row>
+    <row r="114" spans="4:5">
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+    </row>
+    <row r="115" spans="4:5">
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+    </row>
+    <row r="116" spans="4:5">
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+    </row>
+    <row r="117" spans="4:5">
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+    </row>
+    <row r="118" spans="4:5">
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+    </row>
+    <row r="119" spans="4:5">
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+    </row>
+    <row r="120" spans="4:5">
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+    </row>
+    <row r="121" spans="4:5">
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+    </row>
+    <row r="122" spans="4:5">
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+    </row>
+    <row r="123" spans="4:5">
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+    </row>
+    <row r="124" spans="4:5">
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+    </row>
+    <row r="125" spans="4:5">
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+    </row>
+    <row r="126" spans="4:5">
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+    </row>
+    <row r="127" spans="4:5">
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+    </row>
+    <row r="128" spans="4:5">
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+    </row>
+    <row r="129" spans="4:5">
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+    </row>
+    <row r="130" spans="4:5">
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+    </row>
+    <row r="131" spans="4:5">
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+    </row>
+    <row r="132" spans="4:5">
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+    </row>
+    <row r="133" spans="4:5">
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+    </row>
+    <row r="134" spans="4:5">
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+    </row>
+    <row r="135" spans="4:5">
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+    </row>
+    <row r="136" spans="4:5">
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+    </row>
+    <row r="137" spans="4:5">
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+    </row>
+    <row r="138" spans="4:5">
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+    </row>
+    <row r="139" spans="4:5">
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+    </row>
+    <row r="140" spans="4:5">
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+    </row>
+    <row r="141" spans="4:5">
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+    </row>
+    <row r="142" spans="4:5">
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+    </row>
+    <row r="143" spans="4:5">
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+    </row>
+    <row r="144" spans="4:5">
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+    </row>
+    <row r="145" spans="4:5">
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+    </row>
+    <row r="146" spans="4:5">
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+    </row>
+    <row r="147" spans="4:5">
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+    </row>
+    <row r="148" spans="4:5">
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+    </row>
+    <row r="149" spans="4:5">
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+    </row>
+    <row r="150" spans="4:5">
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+    </row>
+    <row r="151" spans="4:5">
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+    </row>
+    <row r="152" spans="4:5">
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+    </row>
+    <row r="153" spans="4:5">
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+    </row>
+    <row r="154" spans="4:5">
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+    </row>
+    <row r="155" spans="4:5">
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+    </row>
+    <row r="156" spans="4:5">
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+    </row>
+    <row r="157" spans="4:5">
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+    </row>
+    <row r="158" spans="4:5">
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+    </row>
+    <row r="159" spans="4:5">
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+    </row>
+    <row r="160" spans="4:5">
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+    </row>
+    <row r="161" spans="4:5">
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+    </row>
+    <row r="162" spans="4:5">
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+    </row>
+    <row r="163" spans="4:5">
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+    </row>
+    <row r="164" spans="4:5">
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+    </row>
+    <row r="165" spans="4:5">
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+    </row>
+    <row r="166" spans="4:5">
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+    </row>
+    <row r="167" spans="4:5">
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+    </row>
+    <row r="168" spans="4:5">
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+    </row>
+    <row r="169" spans="4:5">
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+    </row>
+    <row r="170" spans="4:5">
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+    </row>
+    <row r="171" spans="4:5">
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+    </row>
+    <row r="172" spans="4:5">
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+    </row>
+    <row r="173" spans="4:5">
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+    </row>
+    <row r="174" spans="4:5">
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+    </row>
+    <row r="175" spans="4:5">
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+    </row>
+    <row r="176" spans="4:5">
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+    </row>
+    <row r="177" spans="4:5">
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+    </row>
+    <row r="178" spans="4:5">
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+    </row>
+    <row r="179" spans="4:5">
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+    </row>
+    <row r="180" spans="4:5">
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
+    </row>
+    <row r="181" spans="4:5">
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+    </row>
+    <row r="182" spans="4:5">
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+    </row>
+    <row r="183" spans="4:5">
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
+    </row>
+    <row r="184" spans="4:5">
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+    </row>
+    <row r="185" spans="4:5">
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+    </row>
+    <row r="186" spans="4:5">
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
+    </row>
+    <row r="187" spans="4:5">
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+    </row>
+    <row r="188" spans="4:5">
+      <c r="D188" s="7"/>
+      <c r="E188" s="7"/>
+    </row>
+    <row r="189" spans="4:5">
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+    </row>
+    <row r="190" spans="4:5">
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
+    </row>
+    <row r="191" spans="4:5">
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+    </row>
+    <row r="192" spans="4:5">
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
+    </row>
+    <row r="193" spans="4:5">
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+    </row>
+    <row r="194" spans="4:5">
+      <c r="D194" s="7"/>
+      <c r="E194" s="7"/>
+    </row>
+    <row r="195" spans="4:5">
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
+    </row>
+    <row r="196" spans="4:5">
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
+    </row>
+    <row r="197" spans="4:5">
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
+    </row>
+    <row r="198" spans="4:5">
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
+    </row>
+    <row r="199" spans="4:5">
+      <c r="D199" s="7"/>
+      <c r="E199" s="7"/>
+    </row>
+    <row r="200" spans="4:5">
+      <c r="D200" s="7"/>
+      <c r="E200" s="7"/>
+    </row>
+    <row r="201" spans="4:5">
+      <c r="D201" s="7"/>
+      <c r="E201" s="7"/>
+    </row>
+    <row r="202" spans="4:5">
+      <c r="D202" s="7"/>
+      <c r="E202" s="7"/>
+    </row>
+    <row r="203" spans="4:5">
+      <c r="D203" s="7"/>
+      <c r="E203" s="7"/>
+    </row>
+    <row r="204" spans="4:5">
+      <c r="D204" s="7"/>
+      <c r="E204" s="7"/>
+    </row>
+    <row r="205" spans="4:5">
+      <c r="D205" s="7"/>
+      <c r="E205" s="7"/>
+    </row>
+    <row r="206" spans="4:5">
+      <c r="D206" s="7"/>
+      <c r="E206" s="7"/>
+    </row>
+    <row r="207" spans="4:5">
+      <c r="D207" s="7"/>
+      <c r="E207" s="7"/>
+    </row>
+    <row r="208" spans="4:5">
+      <c r="D208" s="7"/>
+      <c r="E208" s="7"/>
+    </row>
+    <row r="209" spans="4:5">
+      <c r="D209" s="7"/>
+      <c r="E209" s="7"/>
+    </row>
+    <row r="210" spans="4:5">
+      <c r="D210" s="7"/>
+      <c r="E210" s="7"/>
+    </row>
+    <row r="211" spans="4:5">
+      <c r="D211" s="7"/>
+      <c r="E211" s="7"/>
+    </row>
+    <row r="212" spans="4:5">
+      <c r="D212" s="7"/>
+      <c r="E212" s="7"/>
+    </row>
+    <row r="213" spans="4:5">
+      <c r="D213" s="7"/>
+      <c r="E213" s="7"/>
+    </row>
+    <row r="214" spans="4:5">
+      <c r="D214" s="7"/>
+      <c r="E214" s="7"/>
+    </row>
+    <row r="215" spans="4:5">
+      <c r="D215" s="7"/>
+      <c r="E215" s="7"/>
+    </row>
+    <row r="216" spans="4:5">
+      <c r="D216" s="7"/>
+      <c r="E216" s="7"/>
+    </row>
+    <row r="217" spans="4:5">
+      <c r="D217" s="7"/>
+      <c r="E217" s="7"/>
+    </row>
+    <row r="218" spans="4:5">
+      <c r="D218" s="7"/>
+      <c r="E218" s="7"/>
+    </row>
+    <row r="219" spans="4:5">
+      <c r="D219" s="7"/>
+      <c r="E219" s="7"/>
+    </row>
+    <row r="220" spans="4:5">
+      <c r="D220" s="7"/>
+      <c r="E220" s="7"/>
+    </row>
+    <row r="221" spans="4:5">
+      <c r="D221" s="7"/>
+      <c r="E221" s="7"/>
+    </row>
+    <row r="222" spans="4:5">
+      <c r="D222" s="7"/>
+      <c r="E222" s="7"/>
+    </row>
+    <row r="223" spans="4:5">
+      <c r="D223" s="7"/>
+      <c r="E223" s="7"/>
+    </row>
+    <row r="224" spans="4:5">
+      <c r="D224" s="7"/>
+      <c r="E224" s="7"/>
+    </row>
+    <row r="225" spans="4:5">
+      <c r="D225" s="7"/>
+      <c r="E225" s="7"/>
+    </row>
+    <row r="226" spans="4:5">
+      <c r="D226" s="7"/>
+      <c r="E226" s="7"/>
+    </row>
+    <row r="227" spans="4:5">
+      <c r="D227" s="7"/>
+      <c r="E227" s="7"/>
+    </row>
+    <row r="228" spans="4:5">
+      <c r="D228" s="7"/>
+      <c r="E228" s="7"/>
+    </row>
+    <row r="229" spans="4:5">
+      <c r="D229" s="7"/>
+      <c r="E229" s="7"/>
+    </row>
+    <row r="230" spans="4:5">
+      <c r="D230" s="7"/>
+      <c r="E230" s="7"/>
+    </row>
+    <row r="231" spans="4:5">
+      <c r="D231" s="7"/>
+      <c r="E231" s="7"/>
+    </row>
+    <row r="232" spans="4:5">
+      <c r="D232" s="7"/>
+      <c r="E232" s="7"/>
+    </row>
+    <row r="233" spans="4:5">
+      <c r="D233" s="7"/>
+      <c r="E233" s="7"/>
+    </row>
+    <row r="234" spans="4:5">
+      <c r="D234" s="7"/>
+      <c r="E234" s="7"/>
+    </row>
+    <row r="235" spans="4:5">
+      <c r="D235" s="7"/>
+      <c r="E235" s="7"/>
+    </row>
+    <row r="236" spans="4:5">
+      <c r="D236" s="7"/>
+      <c r="E236" s="7"/>
+    </row>
+    <row r="237" spans="4:5">
+      <c r="D237" s="7"/>
+      <c r="E237" s="7"/>
+    </row>
+    <row r="238" spans="4:5">
+      <c r="D238" s="7"/>
+      <c r="E238" s="7"/>
+    </row>
+    <row r="239" spans="4:5">
+      <c r="D239" s="7"/>
+      <c r="E239" s="7"/>
+    </row>
+    <row r="240" spans="4:5">
+      <c r="D240" s="7"/>
+      <c r="E240" s="7"/>
+    </row>
+    <row r="241" spans="4:5">
+      <c r="D241" s="7"/>
+      <c r="E241" s="7"/>
+    </row>
+    <row r="242" spans="4:5">
+      <c r="D242" s="7"/>
+      <c r="E242" s="7"/>
+    </row>
+    <row r="243" spans="4:5">
+      <c r="D243" s="7"/>
+      <c r="E243" s="7"/>
+    </row>
+    <row r="244" spans="4:5">
+      <c r="D244" s="7"/>
+      <c r="E244" s="7"/>
+    </row>
+    <row r="245" spans="4:5">
+      <c r="D245" s="7"/>
+      <c r="E245" s="7"/>
+    </row>
+    <row r="246" spans="4:5">
+      <c r="D246" s="7"/>
+      <c r="E246" s="7"/>
+    </row>
+    <row r="247" spans="4:5">
+      <c r="D247" s="7"/>
+      <c r="E247" s="7"/>
+    </row>
+    <row r="248" spans="4:5">
+      <c r="D248" s="7"/>
+      <c r="E248" s="7"/>
+    </row>
+    <row r="249" spans="4:5">
+      <c r="D249" s="7"/>
+      <c r="E249" s="7"/>
+    </row>
+    <row r="250" spans="4:5">
+      <c r="D250" s="7"/>
+      <c r="E250" s="7"/>
+    </row>
+    <row r="251" spans="4:5">
+      <c r="D251" s="7"/>
+      <c r="E251" s="7"/>
+    </row>
+    <row r="252" spans="4:5">
+      <c r="D252" s="7"/>
+      <c r="E252" s="7"/>
+    </row>
+    <row r="253" spans="4:5">
+      <c r="D253" s="7"/>
+      <c r="E253" s="7"/>
+    </row>
+    <row r="254" spans="4:5">
+      <c r="D254" s="7"/>
+      <c r="E254" s="7"/>
+    </row>
+    <row r="255" spans="4:5">
+      <c r="D255" s="7"/>
+      <c r="E255" s="7"/>
+    </row>
+    <row r="256" spans="4:5">
+      <c r="D256" s="7"/>
+      <c r="E256" s="7"/>
+    </row>
+    <row r="257" spans="4:5">
+      <c r="D257" s="7"/>
+      <c r="E257" s="7"/>
+    </row>
+    <row r="258" spans="4:5">
+      <c r="D258" s="7"/>
+      <c r="E258" s="7"/>
+    </row>
+    <row r="259" spans="4:5">
+      <c r="D259" s="7"/>
+      <c r="E259" s="7"/>
+    </row>
+    <row r="260" spans="4:5">
+      <c r="D260" s="7"/>
+      <c r="E260" s="7"/>
+    </row>
+    <row r="261" spans="4:5">
+      <c r="D261" s="7"/>
+      <c r="E261" s="7"/>
+    </row>
+    <row r="262" spans="4:5">
+      <c r="D262" s="7"/>
+      <c r="E262" s="7"/>
+    </row>
+    <row r="263" spans="4:5">
+      <c r="D263" s="7"/>
+      <c r="E263" s="7"/>
+    </row>
+    <row r="264" spans="4:5">
+      <c r="D264" s="7"/>
+      <c r="E264" s="7"/>
+    </row>
+    <row r="265" spans="4:5">
+      <c r="D265" s="7"/>
+      <c r="E265" s="7"/>
+    </row>
+    <row r="266" spans="4:5">
+      <c r="D266" s="7"/>
+      <c r="E266" s="7"/>
+    </row>
+    <row r="267" spans="4:5">
+      <c r="D267" s="7"/>
+      <c r="E267" s="7"/>
+    </row>
+    <row r="268" spans="4:5">
+      <c r="D268" s="7"/>
+      <c r="E268" s="7"/>
+    </row>
+    <row r="269" spans="4:5">
+      <c r="D269" s="7"/>
+      <c r="E269" s="7"/>
+    </row>
+    <row r="270" spans="4:5">
+      <c r="D270" s="7"/>
+      <c r="E270" s="7"/>
+    </row>
+    <row r="271" spans="4:5">
+      <c r="D271" s="7"/>
+      <c r="E271" s="7"/>
+    </row>
+    <row r="272" spans="4:5">
+      <c r="D272" s="7"/>
+      <c r="E272" s="7"/>
+    </row>
+    <row r="273" spans="4:5">
+      <c r="D273" s="7"/>
+      <c r="E273" s="7"/>
+    </row>
+    <row r="274" spans="4:5">
+      <c r="D274" s="7"/>
+      <c r="E274" s="7"/>
+    </row>
+    <row r="275" spans="4:5">
+      <c r="D275" s="7"/>
+      <c r="E275" s="7"/>
+    </row>
+    <row r="276" spans="4:5">
+      <c r="D276" s="7"/>
+      <c r="E276" s="7"/>
+    </row>
+    <row r="277" spans="4:5">
+      <c r="D277" s="7"/>
+      <c r="E277" s="7"/>
+    </row>
+    <row r="278" spans="4:5">
+      <c r="D278" s="7"/>
+      <c r="E278" s="7"/>
+    </row>
+    <row r="279" spans="4:5">
+      <c r="D279" s="7"/>
+      <c r="E279" s="7"/>
+    </row>
+    <row r="280" spans="4:5">
+      <c r="D280" s="7"/>
+      <c r="E280" s="7"/>
+    </row>
+    <row r="281" spans="4:5">
+      <c r="D281" s="7"/>
+      <c r="E281" s="7"/>
+    </row>
+    <row r="282" spans="4:5">
+      <c r="D282" s="7"/>
+      <c r="E282" s="7"/>
+    </row>
+    <row r="283" spans="4:5">
+      <c r="D283" s="7"/>
+      <c r="E283" s="7"/>
+    </row>
+    <row r="284" spans="4:5">
+      <c r="D284" s="7"/>
+      <c r="E284" s="7"/>
+    </row>
+    <row r="285" spans="4:5">
+      <c r="D285" s="7"/>
+      <c r="E285" s="7"/>
+    </row>
+    <row r="286" spans="4:5">
+      <c r="D286" s="7"/>
+      <c r="E286" s="7"/>
+    </row>
+    <row r="287" spans="4:5">
+      <c r="D287" s="7"/>
+      <c r="E287" s="7"/>
+    </row>
+    <row r="288" spans="4:5">
+      <c r="D288" s="7"/>
+      <c r="E288" s="7"/>
+    </row>
+    <row r="289" spans="4:5">
+      <c r="D289" s="7"/>
+      <c r="E289" s="7"/>
+    </row>
+    <row r="290" spans="4:5">
+      <c r="D290" s="7"/>
+      <c r="E290" s="7"/>
+    </row>
+    <row r="291" spans="4:5">
+      <c r="D291" s="7"/>
+      <c r="E291" s="7"/>
+    </row>
+    <row r="292" spans="4:5">
+      <c r="D292" s="7"/>
+      <c r="E292" s="7"/>
+    </row>
+    <row r="293" spans="4:5">
+      <c r="D293" s="7"/>
+      <c r="E293" s="7"/>
+    </row>
+    <row r="294" spans="4:5">
+      <c r="D294" s="7"/>
+      <c r="E294" s="7"/>
+    </row>
+    <row r="295" spans="4:5">
+      <c r="D295" s="7"/>
+      <c r="E295" s="7"/>
+    </row>
+    <row r="296" spans="4:5">
+      <c r="D296" s="7"/>
+      <c r="E296" s="7"/>
+    </row>
+    <row r="297" spans="4:5">
+      <c r="D297" s="7"/>
+      <c r="E297" s="7"/>
+    </row>
+    <row r="298" spans="4:5">
+      <c r="D298" s="7"/>
+      <c r="E298" s="7"/>
+    </row>
+    <row r="299" spans="4:5">
+      <c r="D299" s="7"/>
+      <c r="E299" s="7"/>
+    </row>
+    <row r="300" spans="4:5">
+      <c r="D300" s="7"/>
+      <c r="E300" s="7"/>
+    </row>
+    <row r="301" spans="4:5">
+      <c r="D301" s="7"/>
+      <c r="E301" s="7"/>
+    </row>
+    <row r="302" spans="4:5">
+      <c r="D302" s="7"/>
+      <c r="E302" s="7"/>
+    </row>
+    <row r="303" spans="4:5">
+      <c r="D303" s="7"/>
+      <c r="E303" s="7"/>
+    </row>
+    <row r="304" spans="4:5">
+      <c r="D304" s="7"/>
+      <c r="E304" s="7"/>
+    </row>
+    <row r="305" spans="4:5">
+      <c r="D305" s="7"/>
+      <c r="E305" s="7"/>
+    </row>
+    <row r="306" spans="4:5">
+      <c r="D306" s="7"/>
+      <c r="E306" s="7"/>
+    </row>
+    <row r="307" spans="4:5">
+      <c r="D307" s="7"/>
+      <c r="E307" s="7"/>
+    </row>
+    <row r="308" spans="4:5">
+      <c r="D308" s="7"/>
+      <c r="E308" s="7"/>
+    </row>
+    <row r="309" spans="4:5">
+      <c r="D309" s="7"/>
+      <c r="E309" s="7"/>
+    </row>
+    <row r="310" spans="4:5">
+      <c r="D310" s="7"/>
+      <c r="E310" s="7"/>
+    </row>
+    <row r="311" spans="4:5">
+      <c r="D311" s="7"/>
+      <c r="E311" s="7"/>
+    </row>
+    <row r="312" spans="4:5">
+      <c r="D312" s="7"/>
+      <c r="E312" s="7"/>
+    </row>
+    <row r="313" spans="4:5">
+      <c r="D313" s="7"/>
+      <c r="E313" s="7"/>
+    </row>
+    <row r="314" spans="4:5">
+      <c r="D314" s="7"/>
+      <c r="E314" s="7"/>
+    </row>
+    <row r="315" spans="4:5">
+      <c r="D315" s="7"/>
+      <c r="E315" s="7"/>
+    </row>
+    <row r="316" spans="4:5">
+      <c r="D316" s="7"/>
+      <c r="E316" s="7"/>
+    </row>
+    <row r="317" spans="4:5">
+      <c r="D317" s="7"/>
+      <c r="E317" s="7"/>
+    </row>
+    <row r="318" spans="4:5">
+      <c r="D318" s="7"/>
+      <c r="E318" s="7"/>
+    </row>
+    <row r="319" spans="4:5">
+      <c r="D319" s="7"/>
+      <c r="E319" s="7"/>
+    </row>
+    <row r="320" spans="4:5">
+      <c r="D320" s="7"/>
+      <c r="E320" s="7"/>
+    </row>
+    <row r="321" spans="4:5">
+      <c r="D321" s="7"/>
+      <c r="E321" s="7"/>
+    </row>
+    <row r="322" spans="4:5">
+      <c r="D322" s="7"/>
+      <c r="E322" s="7"/>
+    </row>
+    <row r="323" spans="4:5">
+      <c r="D323" s="7"/>
+      <c r="E323" s="7"/>
+    </row>
+    <row r="324" spans="4:5">
+      <c r="D324" s="7"/>
+      <c r="E324" s="7"/>
+    </row>
+    <row r="325" spans="4:5">
+      <c r="D325" s="7"/>
+      <c r="E325" s="7"/>
+    </row>
+    <row r="326" spans="4:5">
+      <c r="D326" s="7"/>
+      <c r="E326" s="7"/>
+    </row>
+    <row r="327" spans="4:5">
+      <c r="D327" s="7"/>
+      <c r="E327" s="7"/>
+    </row>
+    <row r="328" spans="4:5">
+      <c r="D328" s="7"/>
+      <c r="E328" s="7"/>
+    </row>
+    <row r="329" spans="4:5">
+      <c r="D329" s="7"/>
+      <c r="E329" s="7"/>
+    </row>
+    <row r="330" spans="4:5">
+      <c r="D330" s="7"/>
+      <c r="E330" s="7"/>
+    </row>
+    <row r="331" spans="4:5">
+      <c r="D331" s="7"/>
+      <c r="E331" s="7"/>
+    </row>
+    <row r="332" spans="4:5">
+      <c r="D332" s="7"/>
+      <c r="E332" s="7"/>
+    </row>
+    <row r="333" spans="4:5">
+      <c r="D333" s="7"/>
+      <c r="E333" s="7"/>
+    </row>
+    <row r="334" spans="4:5">
+      <c r="D334" s="7"/>
+      <c r="E334" s="7"/>
+    </row>
+    <row r="335" spans="4:5">
+      <c r="D335" s="7"/>
+      <c r="E335" s="7"/>
+    </row>
+    <row r="336" spans="4:5">
+      <c r="D336" s="7"/>
+      <c r="E336" s="7"/>
+    </row>
+    <row r="337" spans="4:5">
+      <c r="D337" s="7"/>
+      <c r="E337" s="7"/>
+    </row>
+    <row r="338" spans="4:5">
+      <c r="D338" s="7"/>
+      <c r="E338" s="7"/>
+    </row>
+    <row r="339" spans="4:5">
+      <c r="D339" s="7"/>
+      <c r="E339" s="7"/>
+    </row>
+    <row r="340" spans="4:5">
+      <c r="D340" s="7"/>
+      <c r="E340" s="7"/>
+    </row>
+    <row r="341" spans="4:5">
+      <c r="D341" s="7"/>
+      <c r="E341" s="7"/>
+    </row>
+    <row r="342" spans="4:5">
+      <c r="D342" s="7"/>
+      <c r="E342" s="7"/>
+    </row>
+    <row r="343" spans="4:5">
+      <c r="D343" s="7"/>
+      <c r="E343" s="7"/>
+    </row>
+    <row r="344" spans="4:5">
+      <c r="D344" s="7"/>
+      <c r="E344" s="7"/>
+    </row>
+    <row r="345" spans="4:5">
+      <c r="D345" s="7"/>
+      <c r="E345" s="7"/>
+    </row>
+    <row r="346" spans="4:5">
+      <c r="D346" s="7"/>
+      <c r="E346" s="7"/>
+    </row>
+    <row r="347" spans="4:5">
+      <c r="D347" s="7"/>
+      <c r="E347" s="7"/>
+    </row>
+    <row r="348" spans="4:5">
+      <c r="D348" s="7"/>
+      <c r="E348" s="7"/>
+    </row>
+    <row r="349" spans="4:5">
+      <c r="D349" s="7"/>
+      <c r="E349" s="7"/>
+    </row>
+    <row r="350" spans="4:5">
+      <c r="D350" s="7"/>
+      <c r="E350" s="7"/>
+    </row>
+    <row r="351" spans="4:5">
+      <c r="D351" s="7"/>
+      <c r="E351" s="7"/>
+    </row>
+    <row r="352" spans="4:5">
+      <c r="D352" s="7"/>
+      <c r="E352" s="7"/>
+    </row>
+    <row r="353" spans="4:5">
+      <c r="D353" s="7"/>
+      <c r="E353" s="7"/>
+    </row>
+    <row r="354" spans="4:5">
+      <c r="D354" s="7"/>
+      <c r="E354" s="7"/>
+    </row>
+    <row r="355" spans="4:5">
+      <c r="D355" s="7"/>
+      <c r="E355" s="7"/>
+    </row>
+    <row r="356" spans="4:5">
+      <c r="D356" s="7"/>
+      <c r="E356" s="7"/>
+    </row>
+    <row r="357" spans="4:5">
+      <c r="D357" s="7"/>
+      <c r="E357" s="7"/>
+    </row>
+    <row r="358" spans="4:5">
+      <c r="D358" s="7"/>
+      <c r="E358" s="7"/>
+    </row>
+    <row r="359" spans="4:5">
+      <c r="D359" s="7"/>
+      <c r="E359" s="7"/>
+    </row>
+    <row r="360" spans="4:5">
+      <c r="D360" s="7"/>
+      <c r="E360" s="7"/>
+    </row>
+    <row r="361" spans="4:5">
+      <c r="D361" s="7"/>
+      <c r="E361" s="7"/>
+    </row>
+    <row r="362" spans="4:5">
+      <c r="D362" s="7"/>
+      <c r="E362" s="7"/>
+    </row>
+    <row r="363" spans="4:5">
+      <c r="D363" s="7"/>
+      <c r="E363" s="7"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="KsfkD2IJ6xoXiVe+R6om2QrSLj1M9RdTOzHvmlapUTlTDn6a4R+GU7mIyL9bOolguXwSHCvWWkmLwAJTuVGQqw==" saltValue="GN/S0Olw5y7fwr4LccRKeA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C201:C754 D2:D200">
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -3193,10 +4651,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G363"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -3210,41 +4668,2570 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:7">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="G3" s="3" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="G4" s="4" t="s">
-        <v>17</v>
-      </c>
+    <row r="5" spans="1:7">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="7"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="7"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="7"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="7"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="7"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="7"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="7"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="7"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="7"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="7"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="7"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="7"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="7"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="7"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="7"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="7"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="7"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="7"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="7"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="7"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="7"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="7"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="7"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="7"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="7"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="7"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="7"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="7"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="7"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="7"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="7"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="7"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="7"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="7"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="7"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="7"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="7"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="7"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="7"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="7"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="7"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="7"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="7"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="7"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="7"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="7"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="7"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="7"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="7"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="7"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="7"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="7"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="7"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="7"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="7"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="7"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="7"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="7"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="7"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="7"/>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="7"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="7"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="7"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="7"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="7"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7"/>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="7"/>
+      <c r="B200" s="7"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7"/>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="7"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
+      <c r="E201" s="7"/>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="7"/>
+      <c r="B202" s="7"/>
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="7"/>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="7"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="7"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="7"/>
+      <c r="B204" s="7"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="7"/>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="7"/>
+      <c r="B205" s="7"/>
+      <c r="C205" s="7"/>
+      <c r="D205" s="7"/>
+      <c r="E205" s="7"/>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="7"/>
+      <c r="B206" s="7"/>
+      <c r="C206" s="7"/>
+      <c r="D206" s="7"/>
+      <c r="E206" s="7"/>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="7"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
+      <c r="E207" s="7"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="7"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
+      <c r="E208" s="7"/>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="7"/>
+      <c r="B209" s="7"/>
+      <c r="C209" s="7"/>
+      <c r="D209" s="7"/>
+      <c r="E209" s="7"/>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="7"/>
+      <c r="B210" s="7"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="7"/>
+      <c r="E210" s="7"/>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="7"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
+      <c r="E211" s="7"/>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="7"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="7"/>
+      <c r="D212" s="7"/>
+      <c r="E212" s="7"/>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="7"/>
+      <c r="B213" s="7"/>
+      <c r="C213" s="7"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="7"/>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="7"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="7"/>
+      <c r="E214" s="7"/>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="7"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="7"/>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="7"/>
+      <c r="B216" s="7"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="7"/>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="7"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="7"/>
+      <c r="D217" s="7"/>
+      <c r="E217" s="7"/>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="7"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="7"/>
+      <c r="D218" s="7"/>
+      <c r="E218" s="7"/>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="7"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="7"/>
+      <c r="D219" s="7"/>
+      <c r="E219" s="7"/>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="7"/>
+      <c r="B220" s="7"/>
+      <c r="C220" s="7"/>
+      <c r="D220" s="7"/>
+      <c r="E220" s="7"/>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="7"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="7"/>
+      <c r="D221" s="7"/>
+      <c r="E221" s="7"/>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="7"/>
+      <c r="B222" s="7"/>
+      <c r="C222" s="7"/>
+      <c r="D222" s="7"/>
+      <c r="E222" s="7"/>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="7"/>
+      <c r="B223" s="7"/>
+      <c r="C223" s="7"/>
+      <c r="D223" s="7"/>
+      <c r="E223" s="7"/>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="7"/>
+      <c r="B224" s="7"/>
+      <c r="C224" s="7"/>
+      <c r="D224" s="7"/>
+      <c r="E224" s="7"/>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="7"/>
+      <c r="B225" s="7"/>
+      <c r="C225" s="7"/>
+      <c r="D225" s="7"/>
+      <c r="E225" s="7"/>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="7"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="7"/>
+      <c r="D226" s="7"/>
+      <c r="E226" s="7"/>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="7"/>
+      <c r="B227" s="7"/>
+      <c r="C227" s="7"/>
+      <c r="D227" s="7"/>
+      <c r="E227" s="7"/>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="7"/>
+      <c r="B228" s="7"/>
+      <c r="C228" s="7"/>
+      <c r="D228" s="7"/>
+      <c r="E228" s="7"/>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="7"/>
+      <c r="B229" s="7"/>
+      <c r="C229" s="7"/>
+      <c r="D229" s="7"/>
+      <c r="E229" s="7"/>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="7"/>
+      <c r="B230" s="7"/>
+      <c r="C230" s="7"/>
+      <c r="D230" s="7"/>
+      <c r="E230" s="7"/>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="7"/>
+      <c r="B231" s="7"/>
+      <c r="C231" s="7"/>
+      <c r="D231" s="7"/>
+      <c r="E231" s="7"/>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="7"/>
+      <c r="B232" s="7"/>
+      <c r="C232" s="7"/>
+      <c r="D232" s="7"/>
+      <c r="E232" s="7"/>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="7"/>
+      <c r="B233" s="7"/>
+      <c r="C233" s="7"/>
+      <c r="D233" s="7"/>
+      <c r="E233" s="7"/>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="7"/>
+      <c r="B234" s="7"/>
+      <c r="C234" s="7"/>
+      <c r="D234" s="7"/>
+      <c r="E234" s="7"/>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="7"/>
+      <c r="B235" s="7"/>
+      <c r="C235" s="7"/>
+      <c r="D235" s="7"/>
+      <c r="E235" s="7"/>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="7"/>
+      <c r="B236" s="7"/>
+      <c r="C236" s="7"/>
+      <c r="D236" s="7"/>
+      <c r="E236" s="7"/>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="7"/>
+      <c r="B237" s="7"/>
+      <c r="C237" s="7"/>
+      <c r="D237" s="7"/>
+      <c r="E237" s="7"/>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="7"/>
+      <c r="B238" s="7"/>
+      <c r="C238" s="7"/>
+      <c r="D238" s="7"/>
+      <c r="E238" s="7"/>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="7"/>
+      <c r="B239" s="7"/>
+      <c r="C239" s="7"/>
+      <c r="D239" s="7"/>
+      <c r="E239" s="7"/>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="7"/>
+      <c r="B240" s="7"/>
+      <c r="C240" s="7"/>
+      <c r="D240" s="7"/>
+      <c r="E240" s="7"/>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="7"/>
+      <c r="B241" s="7"/>
+      <c r="C241" s="7"/>
+      <c r="D241" s="7"/>
+      <c r="E241" s="7"/>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="7"/>
+      <c r="B242" s="7"/>
+      <c r="C242" s="7"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="7"/>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="7"/>
+      <c r="B243" s="7"/>
+      <c r="C243" s="7"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7"/>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="7"/>
+      <c r="B244" s="7"/>
+      <c r="C244" s="7"/>
+      <c r="D244" s="7"/>
+      <c r="E244" s="7"/>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="7"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="7"/>
+      <c r="D245" s="7"/>
+      <c r="E245" s="7"/>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="7"/>
+      <c r="B246" s="7"/>
+      <c r="C246" s="7"/>
+      <c r="D246" s="7"/>
+      <c r="E246" s="7"/>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="7"/>
+      <c r="B247" s="7"/>
+      <c r="C247" s="7"/>
+      <c r="D247" s="7"/>
+      <c r="E247" s="7"/>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="7"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="7"/>
+      <c r="D248" s="7"/>
+      <c r="E248" s="7"/>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="7"/>
+      <c r="B249" s="7"/>
+      <c r="C249" s="7"/>
+      <c r="D249" s="7"/>
+      <c r="E249" s="7"/>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="7"/>
+      <c r="B250" s="7"/>
+      <c r="C250" s="7"/>
+      <c r="D250" s="7"/>
+      <c r="E250" s="7"/>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="7"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="7"/>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="7"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="7"/>
+      <c r="D252" s="7"/>
+      <c r="E252" s="7"/>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="7"/>
+      <c r="B253" s="7"/>
+      <c r="C253" s="7"/>
+      <c r="D253" s="7"/>
+      <c r="E253" s="7"/>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="7"/>
+      <c r="B254" s="7"/>
+      <c r="C254" s="7"/>
+      <c r="D254" s="7"/>
+      <c r="E254" s="7"/>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="7"/>
+      <c r="B255" s="7"/>
+      <c r="C255" s="7"/>
+      <c r="D255" s="7"/>
+      <c r="E255" s="7"/>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="7"/>
+      <c r="B256" s="7"/>
+      <c r="C256" s="7"/>
+      <c r="D256" s="7"/>
+      <c r="E256" s="7"/>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="7"/>
+      <c r="B257" s="7"/>
+      <c r="C257" s="7"/>
+      <c r="D257" s="7"/>
+      <c r="E257" s="7"/>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="7"/>
+      <c r="B258" s="7"/>
+      <c r="C258" s="7"/>
+      <c r="D258" s="7"/>
+      <c r="E258" s="7"/>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="7"/>
+      <c r="B259" s="7"/>
+      <c r="C259" s="7"/>
+      <c r="D259" s="7"/>
+      <c r="E259" s="7"/>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="7"/>
+      <c r="B260" s="7"/>
+      <c r="C260" s="7"/>
+      <c r="D260" s="7"/>
+      <c r="E260" s="7"/>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="7"/>
+      <c r="B261" s="7"/>
+      <c r="C261" s="7"/>
+      <c r="D261" s="7"/>
+      <c r="E261" s="7"/>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="7"/>
+      <c r="B262" s="7"/>
+      <c r="C262" s="7"/>
+      <c r="D262" s="7"/>
+      <c r="E262" s="7"/>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="7"/>
+      <c r="B263" s="7"/>
+      <c r="C263" s="7"/>
+      <c r="D263" s="7"/>
+      <c r="E263" s="7"/>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="7"/>
+      <c r="B264" s="7"/>
+      <c r="C264" s="7"/>
+      <c r="D264" s="7"/>
+      <c r="E264" s="7"/>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="7"/>
+      <c r="B265" s="7"/>
+      <c r="C265" s="7"/>
+      <c r="D265" s="7"/>
+      <c r="E265" s="7"/>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="7"/>
+      <c r="B266" s="7"/>
+      <c r="C266" s="7"/>
+      <c r="D266" s="7"/>
+      <c r="E266" s="7"/>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="7"/>
+      <c r="B267" s="7"/>
+      <c r="C267" s="7"/>
+      <c r="D267" s="7"/>
+      <c r="E267" s="7"/>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="7"/>
+      <c r="B268" s="7"/>
+      <c r="C268" s="7"/>
+      <c r="D268" s="7"/>
+      <c r="E268" s="7"/>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="7"/>
+      <c r="B269" s="7"/>
+      <c r="C269" s="7"/>
+      <c r="D269" s="7"/>
+      <c r="E269" s="7"/>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="7"/>
+      <c r="B270" s="7"/>
+      <c r="C270" s="7"/>
+      <c r="D270" s="7"/>
+      <c r="E270" s="7"/>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="7"/>
+      <c r="B271" s="7"/>
+      <c r="C271" s="7"/>
+      <c r="D271" s="7"/>
+      <c r="E271" s="7"/>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="7"/>
+      <c r="B272" s="7"/>
+      <c r="C272" s="7"/>
+      <c r="D272" s="7"/>
+      <c r="E272" s="7"/>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="7"/>
+      <c r="B273" s="7"/>
+      <c r="C273" s="7"/>
+      <c r="D273" s="7"/>
+      <c r="E273" s="7"/>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="7"/>
+      <c r="B274" s="7"/>
+      <c r="C274" s="7"/>
+      <c r="D274" s="7"/>
+      <c r="E274" s="7"/>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="7"/>
+      <c r="B275" s="7"/>
+      <c r="C275" s="7"/>
+      <c r="D275" s="7"/>
+      <c r="E275" s="7"/>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="7"/>
+      <c r="B276" s="7"/>
+      <c r="C276" s="7"/>
+      <c r="D276" s="7"/>
+      <c r="E276" s="7"/>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="7"/>
+      <c r="B277" s="7"/>
+      <c r="C277" s="7"/>
+      <c r="D277" s="7"/>
+      <c r="E277" s="7"/>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="7"/>
+      <c r="B278" s="7"/>
+      <c r="C278" s="7"/>
+      <c r="D278" s="7"/>
+      <c r="E278" s="7"/>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="7"/>
+      <c r="B279" s="7"/>
+      <c r="C279" s="7"/>
+      <c r="D279" s="7"/>
+      <c r="E279" s="7"/>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="7"/>
+      <c r="B280" s="7"/>
+      <c r="C280" s="7"/>
+      <c r="D280" s="7"/>
+      <c r="E280" s="7"/>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="7"/>
+      <c r="B281" s="7"/>
+      <c r="C281" s="7"/>
+      <c r="D281" s="7"/>
+      <c r="E281" s="7"/>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="7"/>
+      <c r="B282" s="7"/>
+      <c r="C282" s="7"/>
+      <c r="D282" s="7"/>
+      <c r="E282" s="7"/>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="7"/>
+      <c r="B283" s="7"/>
+      <c r="C283" s="7"/>
+      <c r="D283" s="7"/>
+      <c r="E283" s="7"/>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="7"/>
+      <c r="B284" s="7"/>
+      <c r="C284" s="7"/>
+      <c r="D284" s="7"/>
+      <c r="E284" s="7"/>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="7"/>
+      <c r="B285" s="7"/>
+      <c r="C285" s="7"/>
+      <c r="D285" s="7"/>
+      <c r="E285" s="7"/>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="7"/>
+      <c r="B286" s="7"/>
+      <c r="C286" s="7"/>
+      <c r="D286" s="7"/>
+      <c r="E286" s="7"/>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="7"/>
+      <c r="B287" s="7"/>
+      <c r="C287" s="7"/>
+      <c r="D287" s="7"/>
+      <c r="E287" s="7"/>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="7"/>
+      <c r="B288" s="7"/>
+      <c r="C288" s="7"/>
+      <c r="D288" s="7"/>
+      <c r="E288" s="7"/>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="7"/>
+      <c r="B289" s="7"/>
+      <c r="C289" s="7"/>
+      <c r="D289" s="7"/>
+      <c r="E289" s="7"/>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="7"/>
+      <c r="B290" s="7"/>
+      <c r="C290" s="7"/>
+      <c r="D290" s="7"/>
+      <c r="E290" s="7"/>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="7"/>
+      <c r="B291" s="7"/>
+      <c r="C291" s="7"/>
+      <c r="D291" s="7"/>
+      <c r="E291" s="7"/>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="7"/>
+      <c r="B292" s="7"/>
+      <c r="C292" s="7"/>
+      <c r="D292" s="7"/>
+      <c r="E292" s="7"/>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="7"/>
+      <c r="B293" s="7"/>
+      <c r="C293" s="7"/>
+      <c r="D293" s="7"/>
+      <c r="E293" s="7"/>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="7"/>
+      <c r="B294" s="7"/>
+      <c r="C294" s="7"/>
+      <c r="D294" s="7"/>
+      <c r="E294" s="7"/>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="7"/>
+      <c r="B295" s="7"/>
+      <c r="C295" s="7"/>
+      <c r="D295" s="7"/>
+      <c r="E295" s="7"/>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="7"/>
+      <c r="B296" s="7"/>
+      <c r="C296" s="7"/>
+      <c r="D296" s="7"/>
+      <c r="E296" s="7"/>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="7"/>
+      <c r="B297" s="7"/>
+      <c r="C297" s="7"/>
+      <c r="D297" s="7"/>
+      <c r="E297" s="7"/>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="7"/>
+      <c r="B298" s="7"/>
+      <c r="C298" s="7"/>
+      <c r="D298" s="7"/>
+      <c r="E298" s="7"/>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="7"/>
+      <c r="B299" s="7"/>
+      <c r="C299" s="7"/>
+      <c r="D299" s="7"/>
+      <c r="E299" s="7"/>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="7"/>
+      <c r="B300" s="7"/>
+      <c r="C300" s="7"/>
+      <c r="D300" s="7"/>
+      <c r="E300" s="7"/>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="7"/>
+      <c r="B301" s="7"/>
+      <c r="C301" s="7"/>
+      <c r="D301" s="7"/>
+      <c r="E301" s="7"/>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="7"/>
+      <c r="B302" s="7"/>
+      <c r="C302" s="7"/>
+      <c r="D302" s="7"/>
+      <c r="E302" s="7"/>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="7"/>
+      <c r="B303" s="7"/>
+      <c r="C303" s="7"/>
+      <c r="D303" s="7"/>
+      <c r="E303" s="7"/>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="7"/>
+      <c r="B304" s="7"/>
+      <c r="C304" s="7"/>
+      <c r="D304" s="7"/>
+      <c r="E304" s="7"/>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="7"/>
+      <c r="B305" s="7"/>
+      <c r="C305" s="7"/>
+      <c r="D305" s="7"/>
+      <c r="E305" s="7"/>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="7"/>
+      <c r="B306" s="7"/>
+      <c r="C306" s="7"/>
+      <c r="D306" s="7"/>
+      <c r="E306" s="7"/>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="7"/>
+      <c r="B307" s="7"/>
+      <c r="C307" s="7"/>
+      <c r="D307" s="7"/>
+      <c r="E307" s="7"/>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="7"/>
+      <c r="B308" s="7"/>
+      <c r="C308" s="7"/>
+      <c r="D308" s="7"/>
+      <c r="E308" s="7"/>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="7"/>
+      <c r="B309" s="7"/>
+      <c r="C309" s="7"/>
+      <c r="D309" s="7"/>
+      <c r="E309" s="7"/>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="7"/>
+      <c r="B310" s="7"/>
+      <c r="C310" s="7"/>
+      <c r="D310" s="7"/>
+      <c r="E310" s="7"/>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="7"/>
+      <c r="B311" s="7"/>
+      <c r="C311" s="7"/>
+      <c r="D311" s="7"/>
+      <c r="E311" s="7"/>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="7"/>
+      <c r="B312" s="7"/>
+      <c r="C312" s="7"/>
+      <c r="D312" s="7"/>
+      <c r="E312" s="7"/>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="7"/>
+      <c r="B313" s="7"/>
+      <c r="C313" s="7"/>
+      <c r="D313" s="7"/>
+      <c r="E313" s="7"/>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="7"/>
+      <c r="B314" s="7"/>
+      <c r="C314" s="7"/>
+      <c r="D314" s="7"/>
+      <c r="E314" s="7"/>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="7"/>
+      <c r="B315" s="7"/>
+      <c r="C315" s="7"/>
+      <c r="D315" s="7"/>
+      <c r="E315" s="7"/>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="7"/>
+      <c r="B316" s="7"/>
+      <c r="C316" s="7"/>
+      <c r="D316" s="7"/>
+      <c r="E316" s="7"/>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="7"/>
+      <c r="B317" s="7"/>
+      <c r="C317" s="7"/>
+      <c r="D317" s="7"/>
+      <c r="E317" s="7"/>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="7"/>
+      <c r="B318" s="7"/>
+      <c r="C318" s="7"/>
+      <c r="D318" s="7"/>
+      <c r="E318" s="7"/>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="7"/>
+      <c r="B319" s="7"/>
+      <c r="C319" s="7"/>
+      <c r="D319" s="7"/>
+      <c r="E319" s="7"/>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="7"/>
+      <c r="B320" s="7"/>
+      <c r="C320" s="7"/>
+      <c r="D320" s="7"/>
+      <c r="E320" s="7"/>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="7"/>
+      <c r="B321" s="7"/>
+      <c r="C321" s="7"/>
+      <c r="D321" s="7"/>
+      <c r="E321" s="7"/>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="7"/>
+      <c r="B322" s="7"/>
+      <c r="C322" s="7"/>
+      <c r="D322" s="7"/>
+      <c r="E322" s="7"/>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="7"/>
+      <c r="B323" s="7"/>
+      <c r="C323" s="7"/>
+      <c r="D323" s="7"/>
+      <c r="E323" s="7"/>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="7"/>
+      <c r="B324" s="7"/>
+      <c r="C324" s="7"/>
+      <c r="D324" s="7"/>
+      <c r="E324" s="7"/>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="7"/>
+      <c r="B325" s="7"/>
+      <c r="C325" s="7"/>
+      <c r="D325" s="7"/>
+      <c r="E325" s="7"/>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="7"/>
+      <c r="B326" s="7"/>
+      <c r="C326" s="7"/>
+      <c r="D326" s="7"/>
+      <c r="E326" s="7"/>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="7"/>
+      <c r="B327" s="7"/>
+      <c r="C327" s="7"/>
+      <c r="D327" s="7"/>
+      <c r="E327" s="7"/>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="7"/>
+      <c r="B328" s="7"/>
+      <c r="C328" s="7"/>
+      <c r="D328" s="7"/>
+      <c r="E328" s="7"/>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="7"/>
+      <c r="B329" s="7"/>
+      <c r="C329" s="7"/>
+      <c r="D329" s="7"/>
+      <c r="E329" s="7"/>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="7"/>
+      <c r="B330" s="7"/>
+      <c r="C330" s="7"/>
+      <c r="D330" s="7"/>
+      <c r="E330" s="7"/>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="7"/>
+      <c r="B331" s="7"/>
+      <c r="C331" s="7"/>
+      <c r="D331" s="7"/>
+      <c r="E331" s="7"/>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="7"/>
+      <c r="B332" s="7"/>
+      <c r="C332" s="7"/>
+      <c r="D332" s="7"/>
+      <c r="E332" s="7"/>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="7"/>
+      <c r="B333" s="7"/>
+      <c r="C333" s="7"/>
+      <c r="D333" s="7"/>
+      <c r="E333" s="7"/>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="7"/>
+      <c r="B334" s="7"/>
+      <c r="C334" s="7"/>
+      <c r="D334" s="7"/>
+      <c r="E334" s="7"/>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="7"/>
+      <c r="B335" s="7"/>
+      <c r="C335" s="7"/>
+      <c r="D335" s="7"/>
+      <c r="E335" s="7"/>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="7"/>
+      <c r="B336" s="7"/>
+      <c r="C336" s="7"/>
+      <c r="D336" s="7"/>
+      <c r="E336" s="7"/>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="7"/>
+      <c r="B337" s="7"/>
+      <c r="C337" s="7"/>
+      <c r="D337" s="7"/>
+      <c r="E337" s="7"/>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="7"/>
+      <c r="B338" s="7"/>
+      <c r="C338" s="7"/>
+      <c r="D338" s="7"/>
+      <c r="E338" s="7"/>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="7"/>
+      <c r="B339" s="7"/>
+      <c r="C339" s="7"/>
+      <c r="D339" s="7"/>
+      <c r="E339" s="7"/>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="7"/>
+      <c r="B340" s="7"/>
+      <c r="C340" s="7"/>
+      <c r="D340" s="7"/>
+      <c r="E340" s="7"/>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="7"/>
+      <c r="B341" s="7"/>
+      <c r="C341" s="7"/>
+      <c r="D341" s="7"/>
+      <c r="E341" s="7"/>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="7"/>
+      <c r="B342" s="7"/>
+      <c r="C342" s="7"/>
+      <c r="D342" s="7"/>
+      <c r="E342" s="7"/>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="7"/>
+      <c r="B343" s="7"/>
+      <c r="C343" s="7"/>
+      <c r="D343" s="7"/>
+      <c r="E343" s="7"/>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="7"/>
+      <c r="B344" s="7"/>
+      <c r="C344" s="7"/>
+      <c r="D344" s="7"/>
+      <c r="E344" s="7"/>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="7"/>
+      <c r="B345" s="7"/>
+      <c r="C345" s="7"/>
+      <c r="D345" s="7"/>
+      <c r="E345" s="7"/>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="7"/>
+      <c r="B346" s="7"/>
+      <c r="C346" s="7"/>
+      <c r="D346" s="7"/>
+      <c r="E346" s="7"/>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="7"/>
+      <c r="B347" s="7"/>
+      <c r="C347" s="7"/>
+      <c r="D347" s="7"/>
+      <c r="E347" s="7"/>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="7"/>
+      <c r="B348" s="7"/>
+      <c r="C348" s="7"/>
+      <c r="D348" s="7"/>
+      <c r="E348" s="7"/>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="7"/>
+      <c r="B349" s="7"/>
+      <c r="C349" s="7"/>
+      <c r="D349" s="7"/>
+      <c r="E349" s="7"/>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="7"/>
+      <c r="B350" s="7"/>
+      <c r="C350" s="7"/>
+      <c r="D350" s="7"/>
+      <c r="E350" s="7"/>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="7"/>
+      <c r="B351" s="7"/>
+      <c r="C351" s="7"/>
+      <c r="D351" s="7"/>
+      <c r="E351" s="7"/>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="7"/>
+      <c r="B352" s="7"/>
+      <c r="C352" s="7"/>
+      <c r="D352" s="7"/>
+      <c r="E352" s="7"/>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="7"/>
+      <c r="B353" s="7"/>
+      <c r="C353" s="7"/>
+      <c r="D353" s="7"/>
+      <c r="E353" s="7"/>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="7"/>
+      <c r="B354" s="7"/>
+      <c r="C354" s="7"/>
+      <c r="D354" s="7"/>
+      <c r="E354" s="7"/>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="7"/>
+      <c r="B355" s="7"/>
+      <c r="C355" s="7"/>
+      <c r="D355" s="7"/>
+      <c r="E355" s="7"/>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="7"/>
+      <c r="B356" s="7"/>
+      <c r="C356" s="7"/>
+      <c r="D356" s="7"/>
+      <c r="E356" s="7"/>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="7"/>
+      <c r="B357" s="7"/>
+      <c r="C357" s="7"/>
+      <c r="D357" s="7"/>
+      <c r="E357" s="7"/>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="7"/>
+      <c r="B358" s="7"/>
+      <c r="C358" s="7"/>
+      <c r="D358" s="7"/>
+      <c r="E358" s="7"/>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="7"/>
+      <c r="B359" s="7"/>
+      <c r="C359" s="7"/>
+      <c r="D359" s="7"/>
+      <c r="E359" s="7"/>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="7"/>
+      <c r="B360" s="7"/>
+      <c r="C360" s="7"/>
+      <c r="D360" s="7"/>
+      <c r="E360" s="7"/>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="7"/>
+      <c r="B361" s="7"/>
+      <c r="C361" s="7"/>
+      <c r="D361" s="7"/>
+      <c r="E361" s="7"/>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="7"/>
+      <c r="B362" s="7"/>
+      <c r="C362" s="7"/>
+      <c r="D362" s="7"/>
+      <c r="E362" s="7"/>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="7"/>
+      <c r="B363" s="7"/>
+      <c r="C363" s="7"/>
+      <c r="D363" s="7"/>
+      <c r="E363" s="7"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C201:C754 D2:D200">
     <cfRule type="colorScale" priority="11">
       <colorScale>

--- a/pages/Templates/Stakeholder_Input_Vorlage_V1.xlsx
+++ b/pages/Templates/Stakeholder_Input_Vorlage_V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/044f60d434003980/Desktop/Masterarbeit_V1/pages/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{8A17A756-208C-4C2C-BD3D-DCCA541825DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20E2D39A-521A-49F5-BF27-3614F655E207}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{8A17A756-208C-4C2C-BD3D-DCCA541825DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F249E26E-64BA-49A7-A468-20D2CA964333}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="15270" yWindow="2820" windowWidth="6410" windowHeight="3270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einführung" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
@@ -672,16 +672,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -694,11 +688,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -893,36 +928,6 @@
       </fill>
       <protection locked="1" hidden="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -937,43 +942,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:F94" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:F94" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:F94" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ESRS" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Thema" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Unterthema" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Unter-Unterthema" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Auswirkungsbezogene Bewertung" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{1189055C-8503-4048-BA3A-98AA662ABFC3}" name="Finanzbezogene Bewertung" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ESRS" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Thema" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Unterthema" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Unter-Unterthema" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Auswirkungsbezogene Bewertung" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{1189055C-8503-4048-BA3A-98AA662ABFC3}" name="Finanzbezogene Bewertung" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:E363" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:E363" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
   <autoFilter ref="A1:E363" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Thema" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Unterthema" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Unter-Unterthema" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Auswirkungsbezogene Bewertung" dataDxfId="22"/>
-    <tableColumn id="1" xr3:uid="{13C4478C-16E0-458B-B046-FFB29239EEF8}" name="Finanzbezogene Bewertung" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Thema" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Unterthema" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Unter-Unterthema" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Auswirkungsbezogene Bewertung" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{13C4478C-16E0-458B-B046-FFB29239EEF8}" name="Finanzbezogene Bewertung" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle44" displayName="Tabelle44" ref="A1:E363" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle44" displayName="Tabelle44" ref="A1:E363" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25">
   <autoFilter ref="A1:E363" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Thema" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Unterthema" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Unter-Unterthema" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Auswirkungsbezogene Bewertung" dataDxfId="13"/>
-    <tableColumn id="1" xr3:uid="{7C763A09-7151-4C58-BA5D-41CAD0366928}" name="Finanzbezogene Bewertung" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Thema" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Unterthema" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Unter-Unterthema" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Auswirkungsbezogene Bewertung" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{7C763A09-7151-4C58-BA5D-41CAD0366928}" name="Finanzbezogene Bewertung" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1298,26 +1303,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="33.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="182.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>123</v>
       </c>
@@ -1325,7 +1330,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>112</v>
       </c>
@@ -1333,7 +1338,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>113</v>
       </c>
@@ -1341,39 +1346,39 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="7" t="s">
         <v>117</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="7" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1381,27 +1386,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="15" thickBot="1"/>
+    <row r="15" spans="1:5" ht="15" thickBot="1">
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="18"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="B16" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="21"/>
-    </row>
-    <row r="19" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23" t="s">
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" spans="1:2" ht="64" customHeight="1">
+      <c r="A19" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="17"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="DKqxnNwwX5lOxBlLsoaGYYbFRPOS4z8OVdmlHm7slABugaRB2GJ6QR6DnqMmQtFM9haurs7tLNSVAqbJLFl3kw==" saltValue="L1D6fsQ3UqOdMpdpnFH3Gg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -1419,1336 +1424,1340 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="115.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="21"/>
+    <col min="2" max="2" width="30.08984375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.1796875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="115.1796875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.7265625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" style="21"/>
+    <col min="8" max="8" width="18.453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.90625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="23"/>
+      <c r="B3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="23"/>
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="27"/>
+      <c r="B6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="27"/>
+      <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="27"/>
+      <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="27"/>
+      <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="27"/>
+      <c r="B10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="27"/>
+      <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="23"/>
+      <c r="B13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="23"/>
+      <c r="B14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="23"/>
+      <c r="B15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="23"/>
+      <c r="B16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="16"/>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="27"/>
+      <c r="B18" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="27" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="27"/>
+      <c r="B19" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="16"/>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="27"/>
+      <c r="B20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
-      <c r="B21" s="9" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="27"/>
+      <c r="B21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="16"/>
-      <c r="B22" s="9" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="27"/>
+      <c r="B22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="27" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="16"/>
-      <c r="B23" s="9" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="27"/>
+      <c r="B23" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="27" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="16"/>
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="27"/>
+      <c r="B24" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="16"/>
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="27"/>
+      <c r="B25" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="27" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="16"/>
-      <c r="B26" s="9" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="27"/>
+      <c r="B26" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="27" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="16"/>
-      <c r="B27" s="9" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="27"/>
+      <c r="B27" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="27" t="s">
         <v>45</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="16"/>
-      <c r="B28" s="9" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="27"/>
+      <c r="B28" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="27" t="s">
         <v>46</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="23"/>
+      <c r="B30" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
-      <c r="B31" s="8" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="23"/>
+      <c r="B31" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="27" t="s">
         <v>55</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="16"/>
-      <c r="B33" s="9" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="27"/>
+      <c r="B33" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="27" t="s">
         <v>56</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="16"/>
-      <c r="B34" s="9" t="s">
+    <row r="34" spans="1:6">
+      <c r="A34" s="27"/>
+      <c r="B34" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="27" t="s">
         <v>57</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="16"/>
-      <c r="B35" s="9" t="s">
+    <row r="35" spans="1:6">
+      <c r="A35" s="27"/>
+      <c r="B35" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="27" t="s">
         <v>58</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="16"/>
-      <c r="B36" s="9" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" s="27"/>
+      <c r="B36" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="27" t="s">
         <v>59</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="16"/>
-      <c r="B37" s="9" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" s="27"/>
+      <c r="B37" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="27" t="s">
         <v>60</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="16"/>
-      <c r="B38" s="9" t="s">
+    <row r="38" spans="1:6">
+      <c r="A38" s="27"/>
+      <c r="B38" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="27" t="s">
         <v>61</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="16"/>
-      <c r="B39" s="9" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" s="27"/>
+      <c r="B39" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="27" t="s">
         <v>62</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="16"/>
-      <c r="B40" s="9" t="s">
+    <row r="40" spans="1:6">
+      <c r="A40" s="27"/>
+      <c r="B40" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="27" t="s">
         <v>64</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="16"/>
-      <c r="B41" s="9" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" s="27"/>
+      <c r="B41" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="27" t="s">
         <v>65</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="16"/>
-      <c r="B42" s="9" t="s">
+    <row r="42" spans="1:6">
+      <c r="A42" s="27"/>
+      <c r="B42" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="27" t="s">
         <v>66</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="16"/>
-      <c r="B43" s="9" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" s="27"/>
+      <c r="B43" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="27" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="16"/>
-      <c r="B44" s="9" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" s="27"/>
+      <c r="B44" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="27" t="s">
         <v>68</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="16"/>
-      <c r="B45" s="9" t="s">
+    <row r="45" spans="1:6">
+      <c r="A45" s="27"/>
+      <c r="B45" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="27" t="s">
         <v>70</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="16"/>
-      <c r="B46" s="9" t="s">
+    <row r="46" spans="1:6">
+      <c r="A46" s="27"/>
+      <c r="B46" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="27" t="s">
         <v>71</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="16"/>
-      <c r="B47" s="9" t="s">
+    <row r="47" spans="1:6">
+      <c r="A47" s="27"/>
+      <c r="B47" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="27" t="s">
         <v>72</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="16"/>
-      <c r="B48" s="9" t="s">
+    <row r="48" spans="1:6">
+      <c r="A48" s="27"/>
+      <c r="B48" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="27" t="s">
         <v>73</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="16"/>
-      <c r="B49" s="9" t="s">
+    <row r="49" spans="1:6">
+      <c r="A49" s="27"/>
+      <c r="B49" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="27" t="s">
         <v>74</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:6">
+      <c r="A50" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="23" t="s">
         <v>55</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="12"/>
-      <c r="B51" s="8" t="s">
+    <row r="51" spans="1:6">
+      <c r="A51" s="23"/>
+      <c r="B51" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="23" t="s">
         <v>56</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="12"/>
-      <c r="B52" s="8" t="s">
+    <row r="52" spans="1:6">
+      <c r="A52" s="23"/>
+      <c r="B52" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="12"/>
-      <c r="B53" s="8" t="s">
+    <row r="53" spans="1:6">
+      <c r="A53" s="23"/>
+      <c r="B53" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="23" t="s">
         <v>58</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="12"/>
-      <c r="B54" s="8" t="s">
+    <row r="54" spans="1:6">
+      <c r="A54" s="23"/>
+      <c r="B54" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="23" t="s">
         <v>59</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="12"/>
-      <c r="B55" s="8" t="s">
+    <row r="55" spans="1:6">
+      <c r="A55" s="23"/>
+      <c r="B55" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="23" t="s">
         <v>60</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="12"/>
-      <c r="B56" s="8" t="s">
+    <row r="56" spans="1:6">
+      <c r="A56" s="23"/>
+      <c r="B56" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="12"/>
-      <c r="B57" s="8" t="s">
+    <row r="57" spans="1:6">
+      <c r="A57" s="23"/>
+      <c r="B57" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="23" t="s">
         <v>62</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="12"/>
-      <c r="B58" s="8" t="s">
+    <row r="58" spans="1:6">
+      <c r="A58" s="23"/>
+      <c r="B58" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="23" t="s">
         <v>64</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="12"/>
-      <c r="B59" s="8" t="s">
+    <row r="59" spans="1:6">
+      <c r="A59" s="23"/>
+      <c r="B59" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="23" t="s">
         <v>65</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="12"/>
-      <c r="B60" s="8" t="s">
+    <row r="60" spans="1:6">
+      <c r="A60" s="23"/>
+      <c r="B60" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="12"/>
-      <c r="B61" s="8" t="s">
+    <row r="61" spans="1:6">
+      <c r="A61" s="23"/>
+      <c r="B61" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="23" t="s">
         <v>67</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="12"/>
-      <c r="B62" s="8" t="s">
+    <row r="62" spans="1:6">
+      <c r="A62" s="23"/>
+      <c r="B62" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="23" t="s">
         <v>68</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="12"/>
-      <c r="B63" s="8" t="s">
+    <row r="63" spans="1:6">
+      <c r="A63" s="23"/>
+      <c r="B63" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="23" t="s">
         <v>70</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="12"/>
-      <c r="B64" s="8" t="s">
+    <row r="64" spans="1:6">
+      <c r="A64" s="23"/>
+      <c r="B64" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="23" t="s">
         <v>71</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="12"/>
-      <c r="B65" s="8" t="s">
+    <row r="65" spans="1:6">
+      <c r="A65" s="23"/>
+      <c r="B65" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="12"/>
-      <c r="B66" s="8" t="s">
+    <row r="66" spans="1:6">
+      <c r="A66" s="23"/>
+      <c r="B66" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="23" t="s">
         <v>73</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="12"/>
-      <c r="B67" s="8" t="s">
+    <row r="67" spans="1:6">
+      <c r="A67" s="23"/>
+      <c r="B67" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="16" t="s">
+    <row r="68" spans="1:6">
+      <c r="A68" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="27" t="s">
         <v>73</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="16"/>
-      <c r="B69" s="9" t="s">
+    <row r="69" spans="1:6">
+      <c r="A69" s="27"/>
+      <c r="B69" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="27" t="s">
         <v>80</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="16"/>
-      <c r="B70" s="9" t="s">
+    <row r="70" spans="1:6">
+      <c r="A70" s="27"/>
+      <c r="B70" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="27" t="s">
         <v>72</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="16"/>
-      <c r="B71" s="9" t="s">
+    <row r="71" spans="1:6">
+      <c r="A71" s="27"/>
+      <c r="B71" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="27" t="s">
         <v>81</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="16"/>
-      <c r="B72" s="9" t="s">
+    <row r="72" spans="1:6">
+      <c r="A72" s="27"/>
+      <c r="B72" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="20" t="s">
         <v>82</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="16"/>
-      <c r="B73" s="9" t="s">
+    <row r="73" spans="1:6">
+      <c r="A73" s="27"/>
+      <c r="B73" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="27" t="s">
         <v>84</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="16"/>
-      <c r="B74" s="9" t="s">
+    <row r="74" spans="1:6">
+      <c r="A74" s="27"/>
+      <c r="B74" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="27" t="s">
         <v>85</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="16"/>
-      <c r="B75" s="9" t="s">
+    <row r="75" spans="1:6">
+      <c r="A75" s="27"/>
+      <c r="B75" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="27" t="s">
         <v>86</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="16"/>
-      <c r="B76" s="9" t="s">
+    <row r="76" spans="1:6">
+      <c r="A76" s="27"/>
+      <c r="B76" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="27" t="s">
         <v>88</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="16"/>
-      <c r="B77" s="9" t="s">
+    <row r="77" spans="1:6">
+      <c r="A77" s="27"/>
+      <c r="B77" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D77" s="27" t="s">
         <v>89</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="16"/>
-      <c r="B78" s="9" t="s">
+    <row r="78" spans="1:6">
+      <c r="A78" s="27"/>
+      <c r="B78" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D78" s="27" t="s">
         <v>90</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="12" t="s">
+    <row r="79" spans="1:6">
+      <c r="A79" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="12"/>
-      <c r="B80" s="8" t="s">
+    <row r="80" spans="1:6">
+      <c r="A80" s="23"/>
+      <c r="B80" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="23" t="s">
         <v>84</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="12"/>
-      <c r="B81" s="8" t="s">
+    <row r="81" spans="1:6">
+      <c r="A81" s="23"/>
+      <c r="B81" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="D81" s="23" t="s">
         <v>94</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="12"/>
-      <c r="B82" s="8" t="s">
+    <row r="82" spans="1:6">
+      <c r="A82" s="23"/>
+      <c r="B82" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="23" t="s">
         <v>62</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="12"/>
-      <c r="B83" s="8" t="s">
+    <row r="83" spans="1:6">
+      <c r="A83" s="23"/>
+      <c r="B83" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D83" s="28" t="s">
         <v>96</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="12"/>
-      <c r="B84" s="8" t="s">
+    <row r="84" spans="1:6">
+      <c r="A84" s="23"/>
+      <c r="B84" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="23" t="s">
         <v>97</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="12"/>
-      <c r="B85" s="8" t="s">
+    <row r="85" spans="1:6">
+      <c r="A85" s="23"/>
+      <c r="B85" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="17" t="s">
+      <c r="D85" s="28" t="s">
         <v>99</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="12"/>
-      <c r="B86" s="8" t="s">
+    <row r="86" spans="1:6">
+      <c r="A86" s="23"/>
+      <c r="B86" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D86" s="12" t="s">
+      <c r="D86" s="23" t="s">
         <v>100</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="12"/>
-      <c r="B87" s="8" t="s">
+    <row r="87" spans="1:6">
+      <c r="A87" s="23"/>
+      <c r="B87" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D87" s="12" t="s">
+      <c r="D87" s="23" t="s">
         <v>101</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="16" t="s">
+    <row r="88" spans="1:6">
+      <c r="A88" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D88" s="16"/>
+      <c r="D88" s="27"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="16"/>
-      <c r="B89" s="9" t="s">
+    <row r="89" spans="1:6">
+      <c r="A89" s="27"/>
+      <c r="B89" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D89" s="16"/>
+      <c r="D89" s="27"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="16"/>
-      <c r="B90" s="9" t="s">
+    <row r="90" spans="1:6">
+      <c r="A90" s="27"/>
+      <c r="B90" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D90" s="16"/>
+      <c r="D90" s="27"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="16"/>
-      <c r="B91" s="9" t="s">
+    <row r="91" spans="1:6">
+      <c r="A91" s="27"/>
+      <c r="B91" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D91" s="16"/>
+      <c r="D91" s="27"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="16"/>
-      <c r="B92" s="9" t="s">
+    <row r="92" spans="1:6">
+      <c r="A92" s="27"/>
+      <c r="B92" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D92" s="16"/>
+      <c r="D92" s="27"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="16"/>
-      <c r="B93" s="9" t="s">
+    <row r="93" spans="1:6">
+      <c r="A93" s="27"/>
+      <c r="B93" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D93" s="9"/>
+      <c r="D93" s="19"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="16"/>
-      <c r="B94" s="9" t="s">
+    <row r="94" spans="1:6">
+      <c r="A94" s="27"/>
+      <c r="B94" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C94" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D94" s="16"/>
+      <c r="D94" s="27"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="MHqxhgccGG/w9DxhVOlmQwantb4IbDidxBd6qq6FnUS+iWEIC91753+eqC++Ad138BklJmU2mPB6jmIXR8WIfA==" saltValue="Tg36CNWUZEcCnKtKrQ2c9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="E2:F94">
-    <cfRule type="beginsWith" dxfId="11" priority="1" operator="beginsWith" text="Nicht">
+    <cfRule type="beginsWith" dxfId="19" priority="1" operator="beginsWith" text="Nicht">
       <formula>LEFT(E2,LEN("Nicht"))="Nicht"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="2" operator="beginsWith" text="Eher nicht">
+    <cfRule type="beginsWith" dxfId="18" priority="2" operator="beginsWith" text="Eher nicht">
       <formula>LEFT(E2,LEN("Eher nicht"))="Eher nicht"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="3" operator="beginsWith" text="Eher Wesentlich">
+    <cfRule type="beginsWith" dxfId="17" priority="3" operator="beginsWith" text="Eher Wesentlich">
       <formula>LEFT(E2,LEN("Eher Wesentlich"))="Eher Wesentlich"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="4" operator="beginsWith" text="Wesentlich">
+    <cfRule type="beginsWith" dxfId="16" priority="4" operator="beginsWith" text="Wesentlich">
       <formula>LEFT(E2,LEN("Wesentlich"))="Wesentlich"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2773,10 +2782,10 @@
   <dimension ref="A1:G363"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="35.6328125" customWidth="1"/>
     <col min="2" max="2" width="56.6328125" customWidth="1"/>
@@ -2786,1496 +2795,1496 @@
     <col min="7" max="7" width="19.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:5">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:5">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:5">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:5">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:5">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:5">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:5">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:5">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:5">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:5">
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:5">
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:5">
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:5">
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:5">
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:5">
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:5">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:5">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:5">
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:5">
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:5">
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:5">
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:5">
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:5">
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:5">
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:5">
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:5">
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:5">
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:5">
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:5">
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:5">
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:5">
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:5">
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:5">
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:5">
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:5">
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:5">
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:5">
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:5">
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:5">
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:5">
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:5">
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:5">
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="4:5">
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="4:5">
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:5">
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="4:5">
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="4:5">
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="4:5">
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="4:5">
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="4:5">
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="4:5">
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="4:5">
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="4:5">
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="4:5">
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="4:5">
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="4:5">
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="4:5">
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="4:5">
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="4:5">
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="4:5">
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="4:5">
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="4:5">
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="4:5">
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="4:5">
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="4:5">
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:5">
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="4:5">
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="4:5">
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="4:5">
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="4:5">
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="4:5">
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:5">
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="4:5">
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="4:5">
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="4:5">
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="4:5">
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="4:5">
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="4:5">
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="4:5">
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="4:5">
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="4:5">
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="4:5">
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="4:5">
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="4:5">
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="4:5">
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="4:5">
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="4:5">
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="4:5">
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="4:5">
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="4:5">
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="4:5">
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="4:5">
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="4:5">
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="4:5">
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="4:5">
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="4:5">
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:5">
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:5">
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:5">
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:5">
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:5">
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:5">
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:5">
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:5">
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:5">
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:5">
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:5">
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:5">
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:5">
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:5">
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:5">
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:5">
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:5">
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:5">
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:5">
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:5">
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:5">
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:5">
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="4:5">
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="4:5">
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="4:5">
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="4:5">
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="4:5">
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="4:5">
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="4:5">
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="4:5">
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="4:5">
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="4:5">
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="4:5">
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="4:5">
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="4:5">
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="4:5">
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="4:5">
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="4:5">
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="4:5">
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="4:5">
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="4:5">
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="4:5">
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="4:5">
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="4:5">
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="4:5">
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="4:5">
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="4:5">
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="4:5">
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="4:5">
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="4:5">
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="4:5">
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="4:5">
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="4:5">
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="4:5">
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="4:5">
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="4:5">
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="4:5">
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="4:5">
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="4:5">
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="4:5">
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="4:5">
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="4:5">
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="4:5">
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="4:5">
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="4:5">
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="4:5">
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="4:5">
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="4:5">
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="4:5">
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="4:5">
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="4:5">
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="4:5">
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="4:5">
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="4:5">
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="4:5">
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="4:5">
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="4:5">
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="4:5">
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="4:5">
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="4:5">
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="4:5">
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="4:5">
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="4:5">
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="4:5">
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="4:5">
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="4:5">
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="4:5">
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="4:5">
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="4:5">
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="4:5">
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="4:5">
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="4:5">
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="4:5">
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="4:5">
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="4:5">
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="4:5">
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="4:5">
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="4:5">
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="4:5">
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="4:5">
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="4:5">
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="4:5">
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="4:5">
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="4:5">
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="4:5">
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="4:5">
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="4:5">
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
     </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="4:5">
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
     </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="4:5">
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
     </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="4:5">
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
     </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="4:5">
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
     </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="4:5">
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
     </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="4:5">
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="4:5">
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="4:5">
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
     </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="4:5">
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
     </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="4:5">
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
     </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="4:5">
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
     </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="4:5">
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
     </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="4:5">
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="4:5">
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="4:5">
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="4:5">
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="4:5">
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
     </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="4:5">
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
     </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="4:5">
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="4:5">
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
     </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="4:5">
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
     </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="4:5">
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
     </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="4:5">
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
     </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="4:5">
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
     </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="4:5">
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
     </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="4:5">
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
     </row>
-    <row r="246" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="4:5">
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
     </row>
-    <row r="247" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="4:5">
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
     </row>
-    <row r="248" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="4:5">
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
     </row>
-    <row r="249" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="4:5">
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
     </row>
-    <row r="250" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="4:5">
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
     </row>
-    <row r="251" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="4:5">
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
     </row>
-    <row r="252" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="4:5">
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
     </row>
-    <row r="253" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="4:5">
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
     </row>
-    <row r="254" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="4:5">
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
     </row>
-    <row r="255" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="4:5">
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="4:5">
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="4:5">
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="4:5">
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="4:5">
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
     </row>
-    <row r="260" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="4:5">
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
     </row>
-    <row r="261" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="4:5">
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
     </row>
-    <row r="262" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="4:5">
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
     </row>
-    <row r="263" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="4:5">
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
     </row>
-    <row r="264" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="4:5">
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
     </row>
-    <row r="265" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="4:5">
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
     </row>
-    <row r="266" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="4:5">
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
     </row>
-    <row r="267" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="4:5">
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
     </row>
-    <row r="268" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="4:5">
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
     </row>
-    <row r="269" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="4:5">
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
     </row>
-    <row r="270" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="4:5">
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
     </row>
-    <row r="271" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="4:5">
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
     </row>
-    <row r="272" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="4:5">
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
     </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="4:5">
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
     </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="4:5">
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
     </row>
-    <row r="275" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="4:5">
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
     </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="4:5">
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
     </row>
-    <row r="277" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="4:5">
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
     </row>
-    <row r="278" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="4:5">
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
     </row>
-    <row r="279" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="4:5">
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
     </row>
-    <row r="280" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="4:5">
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
     </row>
-    <row r="281" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="4:5">
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
     </row>
-    <row r="282" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="4:5">
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
     </row>
-    <row r="283" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="4:5">
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
     </row>
-    <row r="284" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="4:5">
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
     </row>
-    <row r="285" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="4:5">
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
     </row>
-    <row r="286" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="4:5">
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
     </row>
-    <row r="287" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="4:5">
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
     </row>
-    <row r="288" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="4:5">
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
     </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="4:5">
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
     </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="4:5">
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="4:5">
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
     </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="4:5">
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="4:5">
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="4:5">
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
     </row>
-    <row r="295" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="4:5">
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
     </row>
-    <row r="296" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="4:5">
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
     </row>
-    <row r="297" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="4:5">
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
     </row>
-    <row r="298" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="4:5">
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
     </row>
-    <row r="299" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="4:5">
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
     </row>
-    <row r="300" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="4:5">
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
     </row>
-    <row r="301" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="4:5">
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
     </row>
-    <row r="302" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="4:5">
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
     </row>
-    <row r="303" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="4:5">
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
     </row>
-    <row r="304" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="4:5">
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
     </row>
-    <row r="305" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="4:5">
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
     </row>
-    <row r="306" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="4:5">
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
     </row>
-    <row r="307" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="4:5">
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
     </row>
-    <row r="308" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="4:5">
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
     </row>
-    <row r="309" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="4:5">
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
     </row>
-    <row r="310" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="4:5">
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
     </row>
-    <row r="311" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="4:5">
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
     </row>
-    <row r="312" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="4:5">
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
     </row>
-    <row r="313" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="4:5">
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
     </row>
-    <row r="314" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="4:5">
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
     </row>
-    <row r="315" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="4:5">
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
     </row>
-    <row r="316" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="4:5">
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
     </row>
-    <row r="317" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="4:5">
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
     </row>
-    <row r="318" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="4:5">
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
     </row>
-    <row r="319" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="4:5">
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
     </row>
-    <row r="320" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="4:5">
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
     </row>
-    <row r="321" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="4:5">
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
     </row>
-    <row r="322" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="4:5">
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
     </row>
-    <row r="323" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="4:5">
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
     </row>
-    <row r="324" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="4:5">
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
     </row>
-    <row r="325" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="4:5">
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
     </row>
-    <row r="326" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="4:5">
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
     </row>
-    <row r="327" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="4:5">
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
     </row>
-    <row r="328" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="4:5">
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
     </row>
-    <row r="329" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="4:5">
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
     </row>
-    <row r="330" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="4:5">
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
     </row>
-    <row r="331" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="4:5">
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
     </row>
-    <row r="332" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="4:5">
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="4:5">
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
     </row>
-    <row r="334" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="4:5">
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="4:5">
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
     </row>
-    <row r="336" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="4:5">
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
     </row>
-    <row r="337" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="4:5">
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
     </row>
-    <row r="338" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="4:5">
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
     </row>
-    <row r="339" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="4:5">
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
     </row>
-    <row r="340" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="4:5">
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
     </row>
-    <row r="341" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="4:5">
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
     </row>
-    <row r="342" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="4:5">
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
     </row>
-    <row r="343" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="4:5">
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
     </row>
-    <row r="344" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="4:5">
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
     </row>
-    <row r="345" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="4:5">
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
     </row>
-    <row r="346" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="4:5">
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
     </row>
-    <row r="347" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="4:5">
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
     </row>
-    <row r="348" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="4:5">
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
     </row>
-    <row r="349" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="4:5">
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
     </row>
-    <row r="350" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="4:5">
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
     </row>
-    <row r="351" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="4:5">
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
     </row>
-    <row r="352" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="4:5">
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
     </row>
-    <row r="353" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="4:5">
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
     </row>
-    <row r="354" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="4:5">
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
     </row>
-    <row r="355" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="4:5">
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
     </row>
-    <row r="356" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="4:5">
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
     </row>
-    <row r="357" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="4:5">
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
     </row>
-    <row r="358" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="4:5">
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
     </row>
-    <row r="359" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="4:5">
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
     </row>
-    <row r="360" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="4:5">
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
     </row>
-    <row r="361" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="4:5">
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
     </row>
-    <row r="362" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="4:5">
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
     </row>
-    <row r="363" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="4:5">
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yi05jiUHJwuxcgn/sKGUsk27jgAPpcbPeBIgU03Wb8wETMmymW8dDQ6HUt2iCM+AKKoT9PWfIlbdIjnAT6qxsA==" saltValue="ffRZxg1o4iSFAqy2wlraIg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="D2:E363">
-    <cfRule type="beginsWith" dxfId="7" priority="1" operator="beginsWith" text="Nicht">
+    <cfRule type="beginsWith" dxfId="15" priority="1" operator="beginsWith" text="Nicht">
       <formula>LEFT(D2,LEN("Nicht"))="Nicht"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="2" operator="beginsWith" text="Eher nicht">
+    <cfRule type="beginsWith" dxfId="14" priority="2" operator="beginsWith" text="Eher nicht">
       <formula>LEFT(D2,LEN("Eher nicht"))="Eher nicht"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="5" priority="3" operator="beginsWith" text="Eher Wesentlich">
+    <cfRule type="beginsWith" dxfId="13" priority="3" operator="beginsWith" text="Eher Wesentlich">
       <formula>LEFT(D2,LEN("Eher Wesentlich"))="Eher Wesentlich"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="4" operator="beginsWith" text="Wesentlich">
+    <cfRule type="beginsWith" dxfId="12" priority="4" operator="beginsWith" text="Wesentlich">
       <formula>LEFT(D2,LEN("Wesentlich"))="Wesentlich"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4299,10 +4308,10 @@
   <dimension ref="A1:G363"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E363"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="35.6328125" customWidth="1"/>
     <col min="2" max="2" width="56.6328125" customWidth="1"/>
@@ -4312,2563 +4321,2563 @@
     <col min="7" max="7" width="19.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -6878,16 +6887,16 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="zRz5e7ft7ngTdk8lYGyzHoLnSDfTROIizxvVtCGkXriSVYu4twekzASK2GXQARXuB7P2ThA2dLfQbUqjcfWV6w==" saltValue="/+CgcTnHfujV5/4O7MDhmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="D2:E363">
-    <cfRule type="beginsWith" dxfId="3" priority="1" operator="beginsWith" text="Nicht">
+    <cfRule type="beginsWith" dxfId="11" priority="1" operator="beginsWith" text="Nicht">
       <formula>LEFT(D2,LEN("Nicht"))="Nicht"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="Eher nicht">
+    <cfRule type="beginsWith" dxfId="10" priority="2" operator="beginsWith" text="Eher nicht">
       <formula>LEFT(D2,LEN("Eher nicht"))="Eher nicht"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Eher Wesentlich">
+    <cfRule type="beginsWith" dxfId="9" priority="3" operator="beginsWith" text="Eher Wesentlich">
       <formula>LEFT(D2,LEN("Eher Wesentlich"))="Eher Wesentlich"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Wesentlich">
+    <cfRule type="beginsWith" dxfId="8" priority="4" operator="beginsWith" text="Wesentlich">
       <formula>LEFT(D2,LEN("Wesentlich"))="Wesentlich"</formula>
     </cfRule>
   </conditionalFormatting>
